--- a/tablas_insivumeh/CANTEL II.xlsx
+++ b/tablas_insivumeh/CANTEL II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="96">
   <si>
     <t>Fecha</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>11/6/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 5:00:00 PM</t>
   </si>
   <si>
     <t>CANTEL II</t>
@@ -656,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -696,7 +699,7 @@
         <v>0.1</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -716,7 +719,7 @@
         <v>0.1</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -736,7 +739,7 @@
         <v>0.1</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -756,7 +759,7 @@
         <v>0.1</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -776,7 +779,7 @@
         <v>0.1</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -796,7 +799,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -816,7 +819,7 @@
         <v>0.1</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -836,7 +839,7 @@
         <v>0.1</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -856,7 +859,7 @@
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -876,7 +879,7 @@
         <v>0.1</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -896,7 +899,7 @@
         <v>0.1</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -916,7 +919,7 @@
         <v>0.1</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -936,7 +939,7 @@
         <v>0.1</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -956,7 +959,7 @@
         <v>0.1</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -976,7 +979,7 @@
         <v>0.1</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -996,7 +999,7 @@
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1016,7 +1019,7 @@
         <v>0.1</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1036,7 +1039,7 @@
         <v>0.1</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1056,7 +1059,7 @@
         <v>0.1</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1076,7 +1079,7 @@
         <v>0.1</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1096,7 +1099,7 @@
         <v>0.1</v>
       </c>
       <c r="F22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1116,7 +1119,7 @@
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1136,7 +1139,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1156,7 +1159,7 @@
         <v>0.1</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1176,7 +1179,7 @@
         <v>0.1</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1196,7 +1199,7 @@
         <v>0.1</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1216,7 +1219,7 @@
         <v>0.1</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1236,7 +1239,7 @@
         <v>0.1</v>
       </c>
       <c r="F29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1256,7 +1259,7 @@
         <v>0.1</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1276,7 +1279,7 @@
         <v>0.1</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1296,7 +1299,7 @@
         <v>0.1</v>
       </c>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1316,7 +1319,7 @@
         <v>0.1</v>
       </c>
       <c r="F33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1336,7 +1339,7 @@
         <v>0.1</v>
       </c>
       <c r="F34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1356,7 +1359,7 @@
         <v>0.1</v>
       </c>
       <c r="F35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1376,7 +1379,7 @@
         <v>0.1</v>
       </c>
       <c r="F36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1396,7 +1399,7 @@
         <v>0.1</v>
       </c>
       <c r="F37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1416,7 +1419,7 @@
         <v>0.1</v>
       </c>
       <c r="F38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1436,7 +1439,7 @@
         <v>0.1</v>
       </c>
       <c r="F39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1456,7 +1459,7 @@
         <v>0.1</v>
       </c>
       <c r="F40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1476,7 +1479,7 @@
         <v>0.1</v>
       </c>
       <c r="F41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1496,7 +1499,7 @@
         <v>0.1</v>
       </c>
       <c r="F42" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1516,7 +1519,7 @@
         <v>0.1</v>
       </c>
       <c r="F43" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1536,7 +1539,7 @@
         <v>0.1</v>
       </c>
       <c r="F44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1556,7 +1559,7 @@
         <v>0.1</v>
       </c>
       <c r="F45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1576,7 +1579,7 @@
         <v>0.1</v>
       </c>
       <c r="F46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1596,7 +1599,7 @@
         <v>0.1</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1616,7 +1619,7 @@
         <v>0.1</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1636,7 +1639,7 @@
         <v>0.1</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1656,7 +1659,7 @@
         <v>0.1</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1676,7 +1679,7 @@
         <v>0.1</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1696,7 +1699,7 @@
         <v>0.1</v>
       </c>
       <c r="F52" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1716,7 +1719,7 @@
         <v>0.1</v>
       </c>
       <c r="F53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1736,7 +1739,7 @@
         <v>0.1</v>
       </c>
       <c r="F54" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1756,7 +1759,7 @@
         <v>0.1</v>
       </c>
       <c r="F55" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1776,7 +1779,7 @@
         <v>0.1</v>
       </c>
       <c r="F56" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1796,7 +1799,7 @@
         <v>0.1</v>
       </c>
       <c r="F57" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1816,7 +1819,7 @@
         <v>0.1</v>
       </c>
       <c r="F58" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1836,7 +1839,7 @@
         <v>0.1</v>
       </c>
       <c r="F59" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1856,7 +1859,7 @@
         <v>0.1</v>
       </c>
       <c r="F60" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1876,7 +1879,7 @@
         <v>0.1</v>
       </c>
       <c r="F61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1896,7 +1899,7 @@
         <v>0.1</v>
       </c>
       <c r="F62" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1916,7 +1919,7 @@
         <v>0.1</v>
       </c>
       <c r="F63" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1936,7 +1939,7 @@
         <v>0.1</v>
       </c>
       <c r="F64" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1956,7 +1959,7 @@
         <v>0.1</v>
       </c>
       <c r="F65" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1976,7 +1979,7 @@
         <v>0.1</v>
       </c>
       <c r="F66" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1996,7 +1999,7 @@
         <v>0.1</v>
       </c>
       <c r="F67" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2016,7 +2019,7 @@
         <v>0.1</v>
       </c>
       <c r="F68" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2036,7 +2039,7 @@
         <v>0.1</v>
       </c>
       <c r="F69" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2056,7 +2059,7 @@
         <v>0.1</v>
       </c>
       <c r="F70" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2076,7 +2079,7 @@
         <v>0.1</v>
       </c>
       <c r="F71" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2096,7 +2099,7 @@
         <v>0.1</v>
       </c>
       <c r="F72" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2116,7 +2119,7 @@
         <v>0.1</v>
       </c>
       <c r="F73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2136,7 +2139,7 @@
         <v>0.1</v>
       </c>
       <c r="F74" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2156,7 +2159,7 @@
         <v>0.1</v>
       </c>
       <c r="F75" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2176,7 +2179,7 @@
         <v>0.1</v>
       </c>
       <c r="F76" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2196,7 +2199,7 @@
         <v>0.1</v>
       </c>
       <c r="F77" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2216,7 +2219,7 @@
         <v>0.1</v>
       </c>
       <c r="F78" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2236,7 +2239,7 @@
         <v>0.1</v>
       </c>
       <c r="F79" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2256,7 +2259,7 @@
         <v>0.1</v>
       </c>
       <c r="F80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2276,7 +2279,7 @@
         <v>0.1</v>
       </c>
       <c r="F81" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2296,7 +2299,7 @@
         <v>0.1</v>
       </c>
       <c r="F82" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2316,7 +2319,7 @@
         <v>0.1</v>
       </c>
       <c r="F83" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2336,7 +2339,7 @@
         <v>0.1</v>
       </c>
       <c r="F84" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2356,7 +2359,7 @@
         <v>0.1</v>
       </c>
       <c r="F85" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2376,7 +2379,7 @@
         <v>0.1</v>
       </c>
       <c r="F86" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2396,7 +2399,7 @@
         <v>0.1</v>
       </c>
       <c r="F87" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2416,7 +2419,7 @@
         <v>0.1</v>
       </c>
       <c r="F88" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2436,7 +2439,7 @@
         <v>0.1</v>
       </c>
       <c r="F89" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2456,7 +2459,24 @@
         <v>0.1</v>
       </c>
       <c r="F90" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
         <v>94</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0.1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/CANTEL II.xlsx
+++ b/tablas_insivumeh/CANTEL II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
   <si>
     <t>Fecha</t>
   </si>
@@ -31,150 +31,6 @@
     <t>Estación</t>
   </si>
   <si>
-    <t>11/3/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 11:00:00 PM</t>
-  </si>
-  <si>
     <t>11/5/2020 12:00:00 AM</t>
   </si>
   <si>
@@ -299,6 +155,147 @@
   </si>
   <si>
     <t>11/6/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 4:00:00 PM</t>
   </si>
   <si>
     <t>CANTEL II</t>
@@ -659,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,7 +696,7 @@
         <v>0.1</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -719,7 +716,7 @@
         <v>0.1</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -739,7 +736,7 @@
         <v>0.1</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -750,7 +747,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>12.84</v>
+        <v>12.83</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -759,7 +756,7 @@
         <v>0.1</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -770,7 +767,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>12.81</v>
+        <v>12.8</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -779,7 +776,7 @@
         <v>0.1</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -790,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>12.78</v>
+        <v>12.77</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -799,7 +796,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -819,7 +816,7 @@
         <v>0.1</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -830,7 +827,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>12.82</v>
+        <v>12.73</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -839,7 +836,7 @@
         <v>0.1</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -850,7 +847,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>13.14</v>
+        <v>12.95</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -859,7 +856,7 @@
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -870,7 +867,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>13.52</v>
+        <v>13.09</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -879,7 +876,7 @@
         <v>0.1</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -890,7 +887,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>13.56</v>
+        <v>13.34</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -899,7 +896,7 @@
         <v>0.1</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -910,16 +907,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>13.58</v>
+        <v>13.47</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E13">
         <v>0.1</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -930,7 +927,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>13.6</v>
+        <v>13.52</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -939,7 +936,7 @@
         <v>0.1</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -950,16 +947,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>13.6</v>
+        <v>13.54</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E15">
         <v>0.1</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -970,16 +967,16 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>13.59</v>
+        <v>13.53</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E16">
         <v>0.1</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -990,16 +987,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>13.58</v>
+        <v>13.45</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E17">
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1010,7 +1007,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>13.58</v>
+        <v>13.38</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1019,7 +1016,7 @@
         <v>0.1</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1030,16 +1027,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>13.39</v>
+        <v>13.19</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E19">
         <v>0.1</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1053,13 +1050,13 @@
         <v>13.04</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E20">
         <v>0.1</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1070,16 +1067,16 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>12.99</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E21">
         <v>0.1</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1090,16 +1087,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>12.97</v>
+        <v>12.96</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E22">
         <v>0.1</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1110,7 +1107,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>12.95</v>
+        <v>12.93</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1119,7 +1116,7 @@
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1130,7 +1127,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>12.93</v>
+        <v>12.91</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1139,7 +1136,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1150,7 +1147,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>12.92</v>
+        <v>12.88</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1159,7 +1156,7 @@
         <v>0.1</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1170,7 +1167,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>12.91</v>
+        <v>12.85</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1179,7 +1176,7 @@
         <v>0.1</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1190,7 +1187,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>12.89</v>
+        <v>12.81</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1199,7 +1196,7 @@
         <v>0.1</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1210,7 +1207,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>12.85</v>
+        <v>12.75</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1219,7 +1216,7 @@
         <v>0.1</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1230,7 +1227,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>12.82</v>
+        <v>12.72</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1239,7 +1236,7 @@
         <v>0.1</v>
       </c>
       <c r="F29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1250,7 +1247,7 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>12.79</v>
+        <v>12.71</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1259,7 +1256,7 @@
         <v>0.1</v>
       </c>
       <c r="F30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1270,7 +1267,7 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>12.75</v>
+        <v>12.7</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1279,7 +1276,7 @@
         <v>0.1</v>
       </c>
       <c r="F31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1290,16 +1287,16 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>12.72</v>
+        <v>12.69</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E32">
         <v>0.1</v>
       </c>
       <c r="F32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1310,7 +1307,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>12.95</v>
+        <v>12.71</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1319,7 +1316,7 @@
         <v>0.1</v>
       </c>
       <c r="F33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1330,16 +1327,16 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>13.52</v>
+        <v>12.91</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E34">
         <v>0.1</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1350,7 +1347,7 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>13.59</v>
+        <v>13.44</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1359,7 +1356,7 @@
         <v>0.1</v>
       </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1370,7 +1367,7 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>13.6</v>
+        <v>13.55</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1379,7 +1376,7 @@
         <v>0.1</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1390,7 +1387,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>13.61</v>
+        <v>13.56</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1399,7 +1396,7 @@
         <v>0.1</v>
       </c>
       <c r="F37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1410,7 +1407,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1419,7 +1416,7 @@
         <v>0.1</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1439,7 +1436,7 @@
         <v>0.1</v>
       </c>
       <c r="F39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1459,7 +1456,7 @@
         <v>0.1</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1470,7 +1467,7 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>13.38</v>
+        <v>13.59</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1479,7 +1476,7 @@
         <v>0.1</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1490,7 +1487,7 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>13.3</v>
+        <v>13.58</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1499,7 +1496,7 @@
         <v>0.1</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1510,7 +1507,7 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>13.15</v>
+        <v>13.37</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1519,7 +1516,7 @@
         <v>0.1</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1530,7 +1527,7 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>13</v>
+        <v>13.08</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1539,7 +1536,7 @@
         <v>0.1</v>
       </c>
       <c r="F44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1550,16 +1547,16 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>12.97</v>
+        <v>13.02</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E45">
         <v>0.1</v>
       </c>
       <c r="F45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1570,7 +1567,7 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>12.96</v>
+        <v>12.99</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1579,7 +1576,7 @@
         <v>0.1</v>
       </c>
       <c r="F46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1590,7 +1587,7 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>12.94</v>
+        <v>12.97</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1599,7 +1596,7 @@
         <v>0.1</v>
       </c>
       <c r="F47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1610,7 +1607,7 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>12.92</v>
+        <v>12.96</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1619,7 +1616,7 @@
         <v>0.1</v>
       </c>
       <c r="F48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1630,7 +1627,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>12.91</v>
+        <v>12.94</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1639,7 +1636,7 @@
         <v>0.1</v>
       </c>
       <c r="F49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1650,7 +1647,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>12.9</v>
+        <v>12.93</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1659,7 +1656,7 @@
         <v>0.1</v>
       </c>
       <c r="F50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1670,7 +1667,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>12.89</v>
+        <v>12.92</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1679,7 +1676,7 @@
         <v>0.1</v>
       </c>
       <c r="F51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1690,7 +1687,7 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>12.86</v>
+        <v>12.9</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1699,7 +1696,7 @@
         <v>0.1</v>
       </c>
       <c r="F52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1710,7 +1707,7 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>12.83</v>
+        <v>12.89</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1719,7 +1716,7 @@
         <v>0.1</v>
       </c>
       <c r="F53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1730,7 +1727,7 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>12.8</v>
+        <v>12.87</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1739,7 +1736,7 @@
         <v>0.1</v>
       </c>
       <c r="F54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1750,7 +1747,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>12.77</v>
+        <v>12.85</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1759,7 +1756,7 @@
         <v>0.1</v>
       </c>
       <c r="F55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1770,7 +1767,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>12.74</v>
+        <v>12.83</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1779,7 +1776,7 @@
         <v>0.1</v>
       </c>
       <c r="F56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1790,7 +1787,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>12.73</v>
+        <v>13.04</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1799,7 +1796,7 @@
         <v>0.1</v>
       </c>
       <c r="F57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1810,7 +1807,7 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>12.95</v>
+        <v>13.49</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1819,7 +1816,7 @@
         <v>0.1</v>
       </c>
       <c r="F58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1830,7 +1827,7 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>13.09</v>
+        <v>13.57</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1839,7 +1836,7 @@
         <v>0.1</v>
       </c>
       <c r="F59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1850,7 +1847,7 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>13.34</v>
+        <v>13.58</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1859,7 +1856,7 @@
         <v>0.1</v>
       </c>
       <c r="F60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1870,16 +1867,16 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>13.47</v>
+        <v>13.59</v>
       </c>
       <c r="D61">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>0.1</v>
       </c>
       <c r="F61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1890,7 +1887,7 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>13.52</v>
+        <v>13.6</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1899,7 +1896,7 @@
         <v>0.1</v>
       </c>
       <c r="F62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1910,16 +1907,16 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>13.54</v>
+        <v>13.61</v>
       </c>
       <c r="D63">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>0.1</v>
       </c>
       <c r="F63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1930,7 +1927,7 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>13.53</v>
+        <v>13.6</v>
       </c>
       <c r="D64">
         <v>0.5</v>
@@ -1939,7 +1936,7 @@
         <v>0.1</v>
       </c>
       <c r="F64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1950,16 +1947,16 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>13.45</v>
+        <v>13.6</v>
       </c>
       <c r="D65">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>0.1</v>
       </c>
       <c r="F65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1970,7 +1967,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>13.38</v>
+        <v>13.42</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1979,7 +1976,7 @@
         <v>0.1</v>
       </c>
       <c r="F66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1990,16 +1987,16 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>13.19</v>
+        <v>13.15</v>
       </c>
       <c r="D67">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>0.1</v>
       </c>
       <c r="F67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2010,16 +2007,16 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>13.04</v>
+        <v>13.02</v>
       </c>
       <c r="D68">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>0.1</v>
       </c>
       <c r="F68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2030,16 +2027,16 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>12.99</v>
+        <v>13</v>
       </c>
       <c r="D69">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>0.1</v>
       </c>
       <c r="F69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2050,16 +2047,16 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>12.96</v>
+        <v>12.98</v>
       </c>
       <c r="D70">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>0.1</v>
       </c>
       <c r="F70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2070,7 +2067,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>12.93</v>
+        <v>12.96</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2079,7 +2076,7 @@
         <v>0.1</v>
       </c>
       <c r="F71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2090,7 +2087,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>12.91</v>
+        <v>12.94</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2099,7 +2096,7 @@
         <v>0.1</v>
       </c>
       <c r="F72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2110,7 +2107,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>12.88</v>
+        <v>12.93</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2119,7 +2116,7 @@
         <v>0.1</v>
       </c>
       <c r="F73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2130,7 +2127,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>12.85</v>
+        <v>12.92</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2139,7 +2136,7 @@
         <v>0.1</v>
       </c>
       <c r="F74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2150,7 +2147,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>12.81</v>
+        <v>12.9</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2159,7 +2156,7 @@
         <v>0.1</v>
       </c>
       <c r="F75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2170,7 +2167,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>12.75</v>
+        <v>12.87</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2179,7 +2176,7 @@
         <v>0.1</v>
       </c>
       <c r="F76" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2190,7 +2187,7 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>12.72</v>
+        <v>12.85</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2199,7 +2196,7 @@
         <v>0.1</v>
       </c>
       <c r="F77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2210,7 +2207,7 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>12.71</v>
+        <v>12.83</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2219,7 +2216,7 @@
         <v>0.1</v>
       </c>
       <c r="F78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2230,7 +2227,7 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -2239,7 +2236,7 @@
         <v>0.1</v>
       </c>
       <c r="F79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2250,16 +2247,16 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>12.69</v>
+        <v>12.79</v>
       </c>
       <c r="D80">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>0.1</v>
       </c>
       <c r="F80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2270,7 +2267,7 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>12.71</v>
+        <v>12.96</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2279,7 +2276,7 @@
         <v>0.1</v>
       </c>
       <c r="F81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2290,16 +2287,16 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>12.91</v>
+        <v>13.44</v>
       </c>
       <c r="D82">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>0.1</v>
       </c>
       <c r="F82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2310,7 +2307,7 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>13.44</v>
+        <v>13.55</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2319,7 +2316,7 @@
         <v>0.1</v>
       </c>
       <c r="F83" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2330,7 +2327,7 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>13.55</v>
+        <v>13.6</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2339,7 +2336,7 @@
         <v>0.1</v>
       </c>
       <c r="F84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2350,7 +2347,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>13.56</v>
+        <v>13.62</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2359,7 +2356,7 @@
         <v>0.1</v>
       </c>
       <c r="F85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2370,7 +2367,7 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>13.59</v>
+        <v>13.62</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2379,7 +2376,7 @@
         <v>0.1</v>
       </c>
       <c r="F86" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2390,7 +2387,7 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>13.6</v>
+        <v>13.62</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2399,7 +2396,7 @@
         <v>0.1</v>
       </c>
       <c r="F87" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2410,7 +2407,7 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2419,7 +2416,7 @@
         <v>0.1</v>
       </c>
       <c r="F88" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2430,7 +2427,7 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2439,7 +2436,7 @@
         <v>0.1</v>
       </c>
       <c r="F89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2450,7 +2447,7 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>13.58</v>
+        <v>13.59</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2459,24 +2456,7 @@
         <v>0.1</v>
       </c>
       <c r="F90" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>94</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0.1</v>
-      </c>
-      <c r="F91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/CANTEL II.xlsx
+++ b/tablas_insivumeh/CANTEL II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="73">
   <si>
     <t>Fecha</t>
   </si>
@@ -31,78 +31,6 @@
     <t>Estación</t>
   </si>
   <si>
-    <t>11/5/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 11:00:00 PM</t>
-  </si>
-  <si>
     <t>11/6/2020 12:00:00 AM</t>
   </si>
   <si>
@@ -296,6 +224,12 @@
   </si>
   <si>
     <t>11/8/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 6:00:00 PM</t>
   </si>
   <si>
     <t>CANTEL II</t>
@@ -656,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>12.9</v>
+        <v>12.85</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -696,7 +630,7 @@
         <v>0.1</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -707,7 +641,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>12.89</v>
+        <v>12.81</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -716,7 +650,7 @@
         <v>0.1</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -727,7 +661,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>12.86</v>
+        <v>12.75</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -736,7 +670,7 @@
         <v>0.1</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -747,7 +681,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>12.83</v>
+        <v>12.72</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -756,7 +690,7 @@
         <v>0.1</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -767,7 +701,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>12.8</v>
+        <v>12.71</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -776,7 +710,7 @@
         <v>0.1</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -787,7 +721,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>12.77</v>
+        <v>12.7</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -796,7 +730,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -807,16 +741,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>12.74</v>
+        <v>12.69</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
         <v>0.1</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -827,7 +761,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>12.73</v>
+        <v>12.71</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -836,7 +770,7 @@
         <v>0.1</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -847,16 +781,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>12.95</v>
+        <v>12.91</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -867,7 +801,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>13.09</v>
+        <v>13.44</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -876,7 +810,7 @@
         <v>0.1</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -887,7 +821,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>13.34</v>
+        <v>13.55</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -896,7 +830,7 @@
         <v>0.1</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -907,16 +841,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>13.47</v>
+        <v>13.56</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0.1</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -927,7 +861,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>13.52</v>
+        <v>13.59</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -936,7 +870,7 @@
         <v>0.1</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -947,16 +881,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>13.54</v>
+        <v>13.6</v>
       </c>
       <c r="D15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0.1</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -967,16 +901,16 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>13.53</v>
+        <v>13.6</v>
       </c>
       <c r="D16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0.1</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -987,16 +921,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>13.45</v>
+        <v>13.59</v>
       </c>
       <c r="D17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1007,7 +941,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>13.38</v>
+        <v>13.58</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1016,7 +950,7 @@
         <v>0.1</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1027,16 +961,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>13.19</v>
+        <v>13.37</v>
       </c>
       <c r="D19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0.1</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1047,16 +981,16 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>13.04</v>
+        <v>13.08</v>
       </c>
       <c r="D20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0.1</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1067,7 +1001,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>12.99</v>
+        <v>13.02</v>
       </c>
       <c r="D21">
         <v>0.5</v>
@@ -1076,7 +1010,7 @@
         <v>0.1</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1087,16 +1021,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>12.96</v>
+        <v>12.99</v>
       </c>
       <c r="D22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0.1</v>
       </c>
       <c r="F22" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1107,7 +1041,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>12.93</v>
+        <v>12.97</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1116,7 +1050,7 @@
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1127,7 +1061,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>12.91</v>
+        <v>12.96</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1136,7 +1070,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1147,7 +1081,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>12.88</v>
+        <v>12.94</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1156,7 +1090,7 @@
         <v>0.1</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1167,7 +1101,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>12.85</v>
+        <v>12.93</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1176,7 +1110,7 @@
         <v>0.1</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1187,7 +1121,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>12.81</v>
+        <v>12.92</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1196,7 +1130,7 @@
         <v>0.1</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1207,7 +1141,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>12.75</v>
+        <v>12.9</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1216,7 +1150,7 @@
         <v>0.1</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1227,7 +1161,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>12.72</v>
+        <v>12.89</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1236,7 +1170,7 @@
         <v>0.1</v>
       </c>
       <c r="F29" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1247,7 +1181,7 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>12.71</v>
+        <v>12.87</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1256,7 +1190,7 @@
         <v>0.1</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1267,7 +1201,7 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>12.7</v>
+        <v>12.85</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1276,7 +1210,7 @@
         <v>0.1</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1287,16 +1221,16 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>12.69</v>
+        <v>12.83</v>
       </c>
       <c r="D32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0.1</v>
       </c>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1307,7 +1241,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>12.71</v>
+        <v>13.04</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1316,7 +1250,7 @@
         <v>0.1</v>
       </c>
       <c r="F33" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1327,16 +1261,16 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>12.91</v>
+        <v>13.49</v>
       </c>
       <c r="D34">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0.1</v>
       </c>
       <c r="F34" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1347,7 +1281,7 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>13.44</v>
+        <v>13.57</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1356,7 +1290,7 @@
         <v>0.1</v>
       </c>
       <c r="F35" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1367,7 +1301,7 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>13.55</v>
+        <v>13.58</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1376,7 +1310,7 @@
         <v>0.1</v>
       </c>
       <c r="F36" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1387,7 +1321,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>13.56</v>
+        <v>13.59</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1396,7 +1330,7 @@
         <v>0.1</v>
       </c>
       <c r="F37" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1407,7 +1341,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1416,7 +1350,7 @@
         <v>0.1</v>
       </c>
       <c r="F38" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1427,7 +1361,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1436,7 +1370,7 @@
         <v>0.1</v>
       </c>
       <c r="F39" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1450,13 +1384,13 @@
         <v>13.6</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E40">
         <v>0.1</v>
       </c>
       <c r="F40" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1467,7 +1401,7 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1476,7 +1410,7 @@
         <v>0.1</v>
       </c>
       <c r="F41" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1487,7 +1421,7 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>13.58</v>
+        <v>13.42</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1496,7 +1430,7 @@
         <v>0.1</v>
       </c>
       <c r="F42" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1507,7 +1441,7 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>13.37</v>
+        <v>13.15</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1516,7 +1450,7 @@
         <v>0.1</v>
       </c>
       <c r="F43" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1527,7 +1461,7 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>13.08</v>
+        <v>13.02</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1536,7 +1470,7 @@
         <v>0.1</v>
       </c>
       <c r="F44" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1547,16 +1481,16 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>13.02</v>
+        <v>13</v>
       </c>
       <c r="D45">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0.1</v>
       </c>
       <c r="F45" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1567,7 +1501,7 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>12.99</v>
+        <v>12.98</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1576,7 +1510,7 @@
         <v>0.1</v>
       </c>
       <c r="F46" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1587,7 +1521,7 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>12.97</v>
+        <v>12.96</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1596,7 +1530,7 @@
         <v>0.1</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1607,7 +1541,7 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>12.96</v>
+        <v>12.94</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1616,7 +1550,7 @@
         <v>0.1</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1627,7 +1561,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>12.94</v>
+        <v>12.93</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1636,7 +1570,7 @@
         <v>0.1</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1647,7 +1581,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>12.93</v>
+        <v>12.92</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1656,7 +1590,7 @@
         <v>0.1</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1667,7 +1601,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>12.92</v>
+        <v>12.9</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1676,7 +1610,7 @@
         <v>0.1</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1687,7 +1621,7 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>12.9</v>
+        <v>12.87</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1696,7 +1630,7 @@
         <v>0.1</v>
       </c>
       <c r="F52" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1707,7 +1641,7 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>12.89</v>
+        <v>12.85</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1716,7 +1650,7 @@
         <v>0.1</v>
       </c>
       <c r="F53" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1727,7 +1661,7 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>12.87</v>
+        <v>12.83</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1736,7 +1670,7 @@
         <v>0.1</v>
       </c>
       <c r="F54" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1747,7 +1681,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>12.85</v>
+        <v>12.8</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1756,7 +1690,7 @@
         <v>0.1</v>
       </c>
       <c r="F55" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1767,7 +1701,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>12.83</v>
+        <v>12.79</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1776,7 +1710,7 @@
         <v>0.1</v>
       </c>
       <c r="F56" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1787,7 +1721,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>13.04</v>
+        <v>12.96</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1796,7 +1730,7 @@
         <v>0.1</v>
       </c>
       <c r="F57" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1807,7 +1741,7 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>13.49</v>
+        <v>13.44</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1816,7 +1750,7 @@
         <v>0.1</v>
       </c>
       <c r="F58" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1827,7 +1761,7 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>13.57</v>
+        <v>13.55</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1836,7 +1770,7 @@
         <v>0.1</v>
       </c>
       <c r="F59" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1847,7 +1781,7 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>13.58</v>
+        <v>13.6</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1856,7 +1790,7 @@
         <v>0.1</v>
       </c>
       <c r="F60" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1867,7 +1801,7 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>13.59</v>
+        <v>13.62</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1876,7 +1810,7 @@
         <v>0.1</v>
       </c>
       <c r="F61" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1887,7 +1821,7 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>13.6</v>
+        <v>13.62</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1896,7 +1830,7 @@
         <v>0.1</v>
       </c>
       <c r="F62" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1907,7 +1841,7 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1916,7 +1850,7 @@
         <v>0.1</v>
       </c>
       <c r="F63" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1927,16 +1861,16 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D64">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0.1</v>
       </c>
       <c r="F64" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1947,7 +1881,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -1956,7 +1890,7 @@
         <v>0.1</v>
       </c>
       <c r="F65" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1967,7 +1901,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>13.42</v>
+        <v>13.59</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1976,7 +1910,7 @@
         <v>0.1</v>
       </c>
       <c r="F66" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1987,7 +1921,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>13.15</v>
+        <v>13.22</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -1996,7 +1930,7 @@
         <v>0.1</v>
       </c>
       <c r="F67" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2007,7 +1941,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>13.02</v>
+        <v>13.03</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2016,447 +1950,7 @@
         <v>0.1</v>
       </c>
       <c r="F68" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69">
-        <v>13</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0.1</v>
-      </c>
-      <c r="F69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>73</v>
-      </c>
-      <c r="C70">
-        <v>12.98</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0.1</v>
-      </c>
-      <c r="F70" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>74</v>
-      </c>
-      <c r="C71">
-        <v>12.96</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0.1</v>
-      </c>
-      <c r="F71" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72">
-        <v>12.94</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0.1</v>
-      </c>
-      <c r="F72" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>76</v>
-      </c>
-      <c r="C73">
-        <v>12.93</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0.1</v>
-      </c>
-      <c r="F73" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74">
-        <v>12.92</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0.1</v>
-      </c>
-      <c r="F74" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75">
-        <v>12.9</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0.1</v>
-      </c>
-      <c r="F75" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76">
-        <v>12.87</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0.1</v>
-      </c>
-      <c r="F76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77">
-        <v>12.85</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0.1</v>
-      </c>
-      <c r="F77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>81</v>
-      </c>
-      <c r="C78">
-        <v>12.83</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0.1</v>
-      </c>
-      <c r="F78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>82</v>
-      </c>
-      <c r="C79">
-        <v>12.8</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0.1</v>
-      </c>
-      <c r="F79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>83</v>
-      </c>
-      <c r="C80">
-        <v>12.79</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0.1</v>
-      </c>
-      <c r="F80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>84</v>
-      </c>
-      <c r="C81">
-        <v>12.96</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0.1</v>
-      </c>
-      <c r="F81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>85</v>
-      </c>
-      <c r="C82">
-        <v>13.44</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0.1</v>
-      </c>
-      <c r="F82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83">
-        <v>13.55</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0.1</v>
-      </c>
-      <c r="F83" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>87</v>
-      </c>
-      <c r="C84">
-        <v>13.6</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0.1</v>
-      </c>
-      <c r="F84" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85">
-        <v>13.62</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0.1</v>
-      </c>
-      <c r="F85" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>89</v>
-      </c>
-      <c r="C86">
-        <v>13.62</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0.1</v>
-      </c>
-      <c r="F86" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>90</v>
-      </c>
-      <c r="C87">
-        <v>13.62</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0.1</v>
-      </c>
-      <c r="F87" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>91</v>
-      </c>
-      <c r="C88">
-        <v>13.61</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0.1</v>
-      </c>
-      <c r="F88" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>92</v>
-      </c>
-      <c r="C89">
-        <v>13.61</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0.1</v>
-      </c>
-      <c r="F89" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>93</v>
-      </c>
-      <c r="C90">
-        <v>13.59</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0.1</v>
-      </c>
-      <c r="F90" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/CANTEL II.xlsx
+++ b/tablas_insivumeh/CANTEL II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="99">
   <si>
     <t>Fecha</t>
   </si>
@@ -296,6 +296,18 @@
   </si>
   <si>
     <t>11/8/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 8:00:00 PM</t>
   </si>
   <si>
     <t>CANTEL II</t>
@@ -656,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -696,7 +708,7 @@
         <v>0.1</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -716,7 +728,7 @@
         <v>0.1</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -736,7 +748,7 @@
         <v>0.1</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -756,7 +768,7 @@
         <v>0.1</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -776,7 +788,7 @@
         <v>0.1</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -796,7 +808,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -816,7 +828,7 @@
         <v>0.1</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -836,7 +848,7 @@
         <v>0.1</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -856,7 +868,7 @@
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -876,7 +888,7 @@
         <v>0.1</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -896,7 +908,7 @@
         <v>0.1</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -916,7 +928,7 @@
         <v>0.1</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -936,7 +948,7 @@
         <v>0.1</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -956,7 +968,7 @@
         <v>0.1</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -976,7 +988,7 @@
         <v>0.1</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -996,7 +1008,7 @@
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1016,7 +1028,7 @@
         <v>0.1</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1036,7 +1048,7 @@
         <v>0.1</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1056,7 +1068,7 @@
         <v>0.1</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1076,7 +1088,7 @@
         <v>0.1</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1096,7 +1108,7 @@
         <v>0.1</v>
       </c>
       <c r="F22" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1116,7 +1128,7 @@
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1136,7 +1148,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1156,7 +1168,7 @@
         <v>0.1</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1176,7 +1188,7 @@
         <v>0.1</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1196,7 +1208,7 @@
         <v>0.1</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1216,7 +1228,7 @@
         <v>0.1</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1236,7 +1248,7 @@
         <v>0.1</v>
       </c>
       <c r="F29" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1256,7 +1268,7 @@
         <v>0.1</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1276,7 +1288,7 @@
         <v>0.1</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1296,7 +1308,7 @@
         <v>0.1</v>
       </c>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1316,7 +1328,7 @@
         <v>0.1</v>
       </c>
       <c r="F33" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1336,7 +1348,7 @@
         <v>0.1</v>
       </c>
       <c r="F34" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1356,7 +1368,7 @@
         <v>0.1</v>
       </c>
       <c r="F35" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1376,7 +1388,7 @@
         <v>0.1</v>
       </c>
       <c r="F36" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1396,7 +1408,7 @@
         <v>0.1</v>
       </c>
       <c r="F37" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1416,7 +1428,7 @@
         <v>0.1</v>
       </c>
       <c r="F38" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1436,7 +1448,7 @@
         <v>0.1</v>
       </c>
       <c r="F39" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1456,7 +1468,7 @@
         <v>0.1</v>
       </c>
       <c r="F40" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1476,7 +1488,7 @@
         <v>0.1</v>
       </c>
       <c r="F41" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1496,7 +1508,7 @@
         <v>0.1</v>
       </c>
       <c r="F42" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1516,7 +1528,7 @@
         <v>0.1</v>
       </c>
       <c r="F43" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1536,7 +1548,7 @@
         <v>0.1</v>
       </c>
       <c r="F44" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1556,7 +1568,7 @@
         <v>0.1</v>
       </c>
       <c r="F45" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1576,7 +1588,7 @@
         <v>0.1</v>
       </c>
       <c r="F46" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1596,7 +1608,7 @@
         <v>0.1</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1616,7 +1628,7 @@
         <v>0.1</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1636,7 +1648,7 @@
         <v>0.1</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1656,7 +1668,7 @@
         <v>0.1</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1676,7 +1688,7 @@
         <v>0.1</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1696,7 +1708,7 @@
         <v>0.1</v>
       </c>
       <c r="F52" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1716,7 +1728,7 @@
         <v>0.1</v>
       </c>
       <c r="F53" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1736,7 +1748,7 @@
         <v>0.1</v>
       </c>
       <c r="F54" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1756,7 +1768,7 @@
         <v>0.1</v>
       </c>
       <c r="F55" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1776,7 +1788,7 @@
         <v>0.1</v>
       </c>
       <c r="F56" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1796,7 +1808,7 @@
         <v>0.1</v>
       </c>
       <c r="F57" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1816,7 +1828,7 @@
         <v>0.1</v>
       </c>
       <c r="F58" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1836,7 +1848,7 @@
         <v>0.1</v>
       </c>
       <c r="F59" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1856,7 +1868,7 @@
         <v>0.1</v>
       </c>
       <c r="F60" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1876,7 +1888,7 @@
         <v>0.1</v>
       </c>
       <c r="F61" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1896,7 +1908,7 @@
         <v>0.1</v>
       </c>
       <c r="F62" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1916,7 +1928,7 @@
         <v>0.1</v>
       </c>
       <c r="F63" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1936,7 +1948,7 @@
         <v>0.1</v>
       </c>
       <c r="F64" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1956,7 +1968,7 @@
         <v>0.1</v>
       </c>
       <c r="F65" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1976,7 +1988,7 @@
         <v>0.1</v>
       </c>
       <c r="F66" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1996,7 +2008,7 @@
         <v>0.1</v>
       </c>
       <c r="F67" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2016,7 +2028,7 @@
         <v>0.1</v>
       </c>
       <c r="F68" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2036,7 +2048,7 @@
         <v>0.1</v>
       </c>
       <c r="F69" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2056,7 +2068,7 @@
         <v>0.1</v>
       </c>
       <c r="F70" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2076,7 +2088,7 @@
         <v>0.1</v>
       </c>
       <c r="F71" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2096,7 +2108,7 @@
         <v>0.1</v>
       </c>
       <c r="F72" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2116,7 +2128,7 @@
         <v>0.1</v>
       </c>
       <c r="F73" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2136,7 +2148,7 @@
         <v>0.1</v>
       </c>
       <c r="F74" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2156,7 +2168,7 @@
         <v>0.1</v>
       </c>
       <c r="F75" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2176,7 +2188,7 @@
         <v>0.1</v>
       </c>
       <c r="F76" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2196,7 +2208,7 @@
         <v>0.1</v>
       </c>
       <c r="F77" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2216,7 +2228,7 @@
         <v>0.1</v>
       </c>
       <c r="F78" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2236,7 +2248,7 @@
         <v>0.1</v>
       </c>
       <c r="F79" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2256,7 +2268,7 @@
         <v>0.1</v>
       </c>
       <c r="F80" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2276,7 +2288,7 @@
         <v>0.1</v>
       </c>
       <c r="F81" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2296,7 +2308,7 @@
         <v>0.1</v>
       </c>
       <c r="F82" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2316,7 +2328,7 @@
         <v>0.1</v>
       </c>
       <c r="F83" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2336,7 +2348,7 @@
         <v>0.1</v>
       </c>
       <c r="F84" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2356,7 +2368,7 @@
         <v>0.1</v>
       </c>
       <c r="F85" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2376,7 +2388,7 @@
         <v>0.1</v>
       </c>
       <c r="F86" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2396,7 +2408,7 @@
         <v>0.1</v>
       </c>
       <c r="F87" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2416,7 +2428,7 @@
         <v>0.1</v>
       </c>
       <c r="F88" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2436,7 +2448,7 @@
         <v>0.1</v>
       </c>
       <c r="F89" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2456,7 +2468,87 @@
         <v>0.1</v>
       </c>
       <c r="F90" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
         <v>94</v>
+      </c>
+      <c r="C91">
+        <v>13.22</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0.1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92">
+        <v>13.03</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0.1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93">
+        <v>12.99</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0.1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94">
+        <v>12.97</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0.1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/CANTEL II.xlsx
+++ b/tablas_insivumeh/CANTEL II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="77">
   <si>
     <t>Fecha</t>
   </si>
@@ -31,78 +31,6 @@
     <t>Estación</t>
   </si>
   <si>
-    <t>11/5/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 11:00:00 PM</t>
-  </si>
-  <si>
     <t>11/6/2020 12:00:00 AM</t>
   </si>
   <si>
@@ -308,6 +236,12 @@
   </si>
   <si>
     <t>11/8/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:00:00 PM</t>
   </si>
   <si>
     <t>CANTEL II</t>
@@ -668,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,7 +633,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>12.9</v>
+        <v>12.85</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -708,7 +642,7 @@
         <v>0.1</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -719,7 +653,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>12.89</v>
+        <v>12.81</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -728,7 +662,7 @@
         <v>0.1</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -739,7 +673,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>12.86</v>
+        <v>12.75</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -748,7 +682,7 @@
         <v>0.1</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -759,7 +693,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>12.83</v>
+        <v>12.72</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -768,7 +702,7 @@
         <v>0.1</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -779,7 +713,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>12.8</v>
+        <v>12.71</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -788,7 +722,7 @@
         <v>0.1</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -799,7 +733,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>12.77</v>
+        <v>12.7</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -808,7 +742,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -819,16 +753,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>12.74</v>
+        <v>12.69</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
         <v>0.1</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -839,7 +773,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>12.73</v>
+        <v>12.71</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -848,7 +782,7 @@
         <v>0.1</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -859,16 +793,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>12.95</v>
+        <v>12.91</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -879,7 +813,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>13.09</v>
+        <v>13.44</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -888,7 +822,7 @@
         <v>0.1</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -899,7 +833,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>13.34</v>
+        <v>13.55</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -908,7 +842,7 @@
         <v>0.1</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -919,16 +853,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>13.47</v>
+        <v>13.56</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0.1</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -939,7 +873,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>13.52</v>
+        <v>13.59</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -948,7 +882,7 @@
         <v>0.1</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -959,16 +893,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>13.54</v>
+        <v>13.6</v>
       </c>
       <c r="D15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0.1</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -979,16 +913,16 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>13.53</v>
+        <v>13.6</v>
       </c>
       <c r="D16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0.1</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -999,16 +933,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>13.45</v>
+        <v>13.59</v>
       </c>
       <c r="D17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1019,7 +953,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>13.38</v>
+        <v>13.58</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1028,7 +962,7 @@
         <v>0.1</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1039,16 +973,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>13.19</v>
+        <v>13.37</v>
       </c>
       <c r="D19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0.1</v>
       </c>
       <c r="F19" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1059,16 +993,16 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>13.04</v>
+        <v>13.08</v>
       </c>
       <c r="D20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0.1</v>
       </c>
       <c r="F20" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1079,7 +1013,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>12.99</v>
+        <v>13.02</v>
       </c>
       <c r="D21">
         <v>0.5</v>
@@ -1088,7 +1022,7 @@
         <v>0.1</v>
       </c>
       <c r="F21" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1099,16 +1033,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>12.96</v>
+        <v>12.99</v>
       </c>
       <c r="D22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0.1</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1119,7 +1053,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>12.93</v>
+        <v>12.97</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1128,7 +1062,7 @@
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1139,7 +1073,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>12.91</v>
+        <v>12.96</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1148,7 +1082,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1159,7 +1093,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>12.88</v>
+        <v>12.94</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1168,7 +1102,7 @@
         <v>0.1</v>
       </c>
       <c r="F25" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1179,7 +1113,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>12.85</v>
+        <v>12.93</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1188,7 +1122,7 @@
         <v>0.1</v>
       </c>
       <c r="F26" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1199,7 +1133,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>12.81</v>
+        <v>12.92</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1208,7 +1142,7 @@
         <v>0.1</v>
       </c>
       <c r="F27" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1219,7 +1153,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>12.75</v>
+        <v>12.9</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1228,7 +1162,7 @@
         <v>0.1</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1239,7 +1173,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>12.72</v>
+        <v>12.89</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1248,7 +1182,7 @@
         <v>0.1</v>
       </c>
       <c r="F29" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1259,7 +1193,7 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>12.71</v>
+        <v>12.87</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1268,7 +1202,7 @@
         <v>0.1</v>
       </c>
       <c r="F30" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1279,7 +1213,7 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>12.7</v>
+        <v>12.85</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1288,7 +1222,7 @@
         <v>0.1</v>
       </c>
       <c r="F31" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1299,16 +1233,16 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>12.69</v>
+        <v>12.83</v>
       </c>
       <c r="D32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0.1</v>
       </c>
       <c r="F32" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1319,7 +1253,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>12.71</v>
+        <v>13.04</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1328,7 +1262,7 @@
         <v>0.1</v>
       </c>
       <c r="F33" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1339,16 +1273,16 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>12.91</v>
+        <v>13.49</v>
       </c>
       <c r="D34">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0.1</v>
       </c>
       <c r="F34" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1359,7 +1293,7 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>13.44</v>
+        <v>13.57</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1368,7 +1302,7 @@
         <v>0.1</v>
       </c>
       <c r="F35" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1379,7 +1313,7 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>13.55</v>
+        <v>13.58</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1388,7 +1322,7 @@
         <v>0.1</v>
       </c>
       <c r="F36" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1399,7 +1333,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>13.56</v>
+        <v>13.59</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1408,7 +1342,7 @@
         <v>0.1</v>
       </c>
       <c r="F37" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1419,7 +1353,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1428,7 +1362,7 @@
         <v>0.1</v>
       </c>
       <c r="F38" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1439,7 +1373,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1448,7 +1382,7 @@
         <v>0.1</v>
       </c>
       <c r="F39" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1462,13 +1396,13 @@
         <v>13.6</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E40">
         <v>0.1</v>
       </c>
       <c r="F40" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1479,7 +1413,7 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1488,7 +1422,7 @@
         <v>0.1</v>
       </c>
       <c r="F41" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1499,7 +1433,7 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>13.58</v>
+        <v>13.42</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1508,7 +1442,7 @@
         <v>0.1</v>
       </c>
       <c r="F42" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1519,7 +1453,7 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>13.37</v>
+        <v>13.15</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1528,7 +1462,7 @@
         <v>0.1</v>
       </c>
       <c r="F43" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1539,7 +1473,7 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>13.08</v>
+        <v>13.02</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1548,7 +1482,7 @@
         <v>0.1</v>
       </c>
       <c r="F44" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1559,16 +1493,16 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>13.02</v>
+        <v>13</v>
       </c>
       <c r="D45">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0.1</v>
       </c>
       <c r="F45" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1579,7 +1513,7 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>12.99</v>
+        <v>12.98</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1588,7 +1522,7 @@
         <v>0.1</v>
       </c>
       <c r="F46" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1599,7 +1533,7 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>12.97</v>
+        <v>12.96</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1608,7 +1542,7 @@
         <v>0.1</v>
       </c>
       <c r="F47" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1619,7 +1553,7 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>12.96</v>
+        <v>12.94</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1628,7 +1562,7 @@
         <v>0.1</v>
       </c>
       <c r="F48" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1639,7 +1573,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>12.94</v>
+        <v>12.93</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1648,7 +1582,7 @@
         <v>0.1</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1659,7 +1593,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>12.93</v>
+        <v>12.92</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1668,7 +1602,7 @@
         <v>0.1</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1679,7 +1613,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>12.92</v>
+        <v>12.9</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1688,7 +1622,7 @@
         <v>0.1</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1699,7 +1633,7 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>12.9</v>
+        <v>12.87</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1708,7 +1642,7 @@
         <v>0.1</v>
       </c>
       <c r="F52" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1719,7 +1653,7 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>12.89</v>
+        <v>12.85</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1728,7 +1662,7 @@
         <v>0.1</v>
       </c>
       <c r="F53" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1739,7 +1673,7 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>12.87</v>
+        <v>12.83</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1748,7 +1682,7 @@
         <v>0.1</v>
       </c>
       <c r="F54" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1759,7 +1693,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>12.85</v>
+        <v>12.8</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1768,7 +1702,7 @@
         <v>0.1</v>
       </c>
       <c r="F55" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1779,7 +1713,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>12.83</v>
+        <v>12.79</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1788,7 +1722,7 @@
         <v>0.1</v>
       </c>
       <c r="F56" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1799,7 +1733,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>13.04</v>
+        <v>12.96</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1808,7 +1742,7 @@
         <v>0.1</v>
       </c>
       <c r="F57" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1819,7 +1753,7 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>13.49</v>
+        <v>13.44</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1828,7 +1762,7 @@
         <v>0.1</v>
       </c>
       <c r="F58" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1839,7 +1773,7 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>13.57</v>
+        <v>13.55</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1848,7 +1782,7 @@
         <v>0.1</v>
       </c>
       <c r="F59" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1859,7 +1793,7 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>13.58</v>
+        <v>13.6</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1868,7 +1802,7 @@
         <v>0.1</v>
       </c>
       <c r="F60" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1879,7 +1813,7 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>13.59</v>
+        <v>13.62</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1888,7 +1822,7 @@
         <v>0.1</v>
       </c>
       <c r="F61" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1899,7 +1833,7 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>13.6</v>
+        <v>13.62</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1908,7 +1842,7 @@
         <v>0.1</v>
       </c>
       <c r="F62" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1919,7 +1853,7 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1928,7 +1862,7 @@
         <v>0.1</v>
       </c>
       <c r="F63" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1939,16 +1873,16 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D64">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0.1</v>
       </c>
       <c r="F64" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1959,7 +1893,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -1968,7 +1902,7 @@
         <v>0.1</v>
       </c>
       <c r="F65" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1979,7 +1913,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>13.42</v>
+        <v>13.59</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1988,7 +1922,7 @@
         <v>0.1</v>
       </c>
       <c r="F66" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1999,7 +1933,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>13.15</v>
+        <v>13.22</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2008,7 +1942,7 @@
         <v>0.1</v>
       </c>
       <c r="F67" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2019,7 +1953,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>13.02</v>
+        <v>13.03</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2028,7 +1962,7 @@
         <v>0.1</v>
       </c>
       <c r="F68" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2039,7 +1973,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>13</v>
+        <v>12.99</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2048,7 +1982,7 @@
         <v>0.1</v>
       </c>
       <c r="F69" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2059,7 +1993,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>12.98</v>
+        <v>12.97</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2068,7 +2002,7 @@
         <v>0.1</v>
       </c>
       <c r="F70" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2088,7 +2022,7 @@
         <v>0.1</v>
       </c>
       <c r="F71" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2108,447 +2042,7 @@
         <v>0.1</v>
       </c>
       <c r="F72" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>76</v>
-      </c>
-      <c r="C73">
-        <v>12.93</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0.1</v>
-      </c>
-      <c r="F73" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74">
-        <v>12.92</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0.1</v>
-      </c>
-      <c r="F74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75">
-        <v>12.9</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0.1</v>
-      </c>
-      <c r="F75" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76">
-        <v>12.87</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0.1</v>
-      </c>
-      <c r="F76" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77">
-        <v>12.85</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0.1</v>
-      </c>
-      <c r="F77" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>81</v>
-      </c>
-      <c r="C78">
-        <v>12.83</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0.1</v>
-      </c>
-      <c r="F78" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>82</v>
-      </c>
-      <c r="C79">
-        <v>12.8</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0.1</v>
-      </c>
-      <c r="F79" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>83</v>
-      </c>
-      <c r="C80">
-        <v>12.79</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0.1</v>
-      </c>
-      <c r="F80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>84</v>
-      </c>
-      <c r="C81">
-        <v>12.96</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0.1</v>
-      </c>
-      <c r="F81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>85</v>
-      </c>
-      <c r="C82">
-        <v>13.44</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0.1</v>
-      </c>
-      <c r="F82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83">
-        <v>13.55</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0.1</v>
-      </c>
-      <c r="F83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>87</v>
-      </c>
-      <c r="C84">
-        <v>13.6</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0.1</v>
-      </c>
-      <c r="F84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85">
-        <v>13.62</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0.1</v>
-      </c>
-      <c r="F85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>89</v>
-      </c>
-      <c r="C86">
-        <v>13.62</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0.1</v>
-      </c>
-      <c r="F86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>90</v>
-      </c>
-      <c r="C87">
-        <v>13.62</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0.1</v>
-      </c>
-      <c r="F87" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>91</v>
-      </c>
-      <c r="C88">
-        <v>13.61</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0.1</v>
-      </c>
-      <c r="F88" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>92</v>
-      </c>
-      <c r="C89">
-        <v>13.61</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0.1</v>
-      </c>
-      <c r="F89" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>93</v>
-      </c>
-      <c r="C90">
-        <v>13.59</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0.1</v>
-      </c>
-      <c r="F90" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>94</v>
-      </c>
-      <c r="C91">
-        <v>13.22</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0.1</v>
-      </c>
-      <c r="F91" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>95</v>
-      </c>
-      <c r="C92">
-        <v>13.03</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0.1</v>
-      </c>
-      <c r="F92" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>96</v>
-      </c>
-      <c r="C93">
-        <v>12.99</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>0.1</v>
-      </c>
-      <c r="F93" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>97</v>
-      </c>
-      <c r="C94">
-        <v>12.97</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0.1</v>
-      </c>
-      <c r="F94" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/CANTEL II.xlsx
+++ b/tablas_insivumeh/CANTEL II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="78">
   <si>
     <t>Fecha</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>11/8/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:00:00 PM</t>
   </si>
   <si>
     <t>CANTEL II</t>
@@ -602,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,7 +645,7 @@
         <v>0.1</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -662,7 +665,7 @@
         <v>0.1</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -682,7 +685,7 @@
         <v>0.1</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -702,7 +705,7 @@
         <v>0.1</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -722,7 +725,7 @@
         <v>0.1</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -742,7 +745,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -762,7 +765,7 @@
         <v>0.1</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -782,7 +785,7 @@
         <v>0.1</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -802,7 +805,7 @@
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -822,7 +825,7 @@
         <v>0.1</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -842,7 +845,7 @@
         <v>0.1</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -862,7 +865,7 @@
         <v>0.1</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -882,7 +885,7 @@
         <v>0.1</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -902,7 +905,7 @@
         <v>0.1</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -922,7 +925,7 @@
         <v>0.1</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -942,7 +945,7 @@
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -962,7 +965,7 @@
         <v>0.1</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -982,7 +985,7 @@
         <v>0.1</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1002,7 +1005,7 @@
         <v>0.1</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1022,7 +1025,7 @@
         <v>0.1</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1042,7 +1045,7 @@
         <v>0.1</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1062,7 +1065,7 @@
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1082,7 +1085,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1102,7 +1105,7 @@
         <v>0.1</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1122,7 +1125,7 @@
         <v>0.1</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1142,7 +1145,7 @@
         <v>0.1</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1162,7 +1165,7 @@
         <v>0.1</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1182,7 +1185,7 @@
         <v>0.1</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1202,7 +1205,7 @@
         <v>0.1</v>
       </c>
       <c r="F30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1222,7 +1225,7 @@
         <v>0.1</v>
       </c>
       <c r="F31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1242,7 +1245,7 @@
         <v>0.1</v>
       </c>
       <c r="F32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1262,7 +1265,7 @@
         <v>0.1</v>
       </c>
       <c r="F33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1282,7 +1285,7 @@
         <v>0.1</v>
       </c>
       <c r="F34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1302,7 +1305,7 @@
         <v>0.1</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1322,7 +1325,7 @@
         <v>0.1</v>
       </c>
       <c r="F36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1342,7 +1345,7 @@
         <v>0.1</v>
       </c>
       <c r="F37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1362,7 +1365,7 @@
         <v>0.1</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1382,7 +1385,7 @@
         <v>0.1</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1402,7 +1405,7 @@
         <v>0.1</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1422,7 +1425,7 @@
         <v>0.1</v>
       </c>
       <c r="F41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1442,7 +1445,7 @@
         <v>0.1</v>
       </c>
       <c r="F42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1462,7 +1465,7 @@
         <v>0.1</v>
       </c>
       <c r="F43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1482,7 +1485,7 @@
         <v>0.1</v>
       </c>
       <c r="F44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1502,7 +1505,7 @@
         <v>0.1</v>
       </c>
       <c r="F45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1522,7 +1525,7 @@
         <v>0.1</v>
       </c>
       <c r="F46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1542,7 +1545,7 @@
         <v>0.1</v>
       </c>
       <c r="F47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1562,7 +1565,7 @@
         <v>0.1</v>
       </c>
       <c r="F48" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1582,7 +1585,7 @@
         <v>0.1</v>
       </c>
       <c r="F49" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1602,7 +1605,7 @@
         <v>0.1</v>
       </c>
       <c r="F50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1622,7 +1625,7 @@
         <v>0.1</v>
       </c>
       <c r="F51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1642,7 +1645,7 @@
         <v>0.1</v>
       </c>
       <c r="F52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1662,7 +1665,7 @@
         <v>0.1</v>
       </c>
       <c r="F53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1682,7 +1685,7 @@
         <v>0.1</v>
       </c>
       <c r="F54" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1702,7 +1705,7 @@
         <v>0.1</v>
       </c>
       <c r="F55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1722,7 +1725,7 @@
         <v>0.1</v>
       </c>
       <c r="F56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1742,7 +1745,7 @@
         <v>0.1</v>
       </c>
       <c r="F57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1762,7 +1765,7 @@
         <v>0.1</v>
       </c>
       <c r="F58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1782,7 +1785,7 @@
         <v>0.1</v>
       </c>
       <c r="F59" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1802,7 +1805,7 @@
         <v>0.1</v>
       </c>
       <c r="F60" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1822,7 +1825,7 @@
         <v>0.1</v>
       </c>
       <c r="F61" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1842,7 +1845,7 @@
         <v>0.1</v>
       </c>
       <c r="F62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1862,7 +1865,7 @@
         <v>0.1</v>
       </c>
       <c r="F63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1882,7 +1885,7 @@
         <v>0.1</v>
       </c>
       <c r="F64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1902,7 +1905,7 @@
         <v>0.1</v>
       </c>
       <c r="F65" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1922,7 +1925,7 @@
         <v>0.1</v>
       </c>
       <c r="F66" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1942,7 +1945,7 @@
         <v>0.1</v>
       </c>
       <c r="F67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1962,7 +1965,7 @@
         <v>0.1</v>
       </c>
       <c r="F68" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1982,7 +1985,7 @@
         <v>0.1</v>
       </c>
       <c r="F69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2002,7 +2005,7 @@
         <v>0.1</v>
       </c>
       <c r="F70" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2022,7 +2025,7 @@
         <v>0.1</v>
       </c>
       <c r="F71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2042,7 +2045,27 @@
         <v>0.1</v>
       </c>
       <c r="F72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
         <v>76</v>
+      </c>
+      <c r="C73">
+        <v>12.93</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0.1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/CANTEL II.xlsx
+++ b/tablas_insivumeh/CANTEL II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="80">
   <si>
     <t>Fecha</t>
   </si>
@@ -245,6 +245,12 @@
   </si>
   <si>
     <t>11/8/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:00:00 AM</t>
   </si>
   <si>
     <t>CANTEL II</t>
@@ -605,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -645,7 +651,7 @@
         <v>0.1</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -665,7 +671,7 @@
         <v>0.1</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -685,7 +691,7 @@
         <v>0.1</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -705,7 +711,7 @@
         <v>0.1</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -725,7 +731,7 @@
         <v>0.1</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -745,7 +751,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -765,7 +771,7 @@
         <v>0.1</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -785,7 +791,7 @@
         <v>0.1</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -805,7 +811,7 @@
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -825,7 +831,7 @@
         <v>0.1</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -845,7 +851,7 @@
         <v>0.1</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -865,7 +871,7 @@
         <v>0.1</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -885,7 +891,7 @@
         <v>0.1</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -905,7 +911,7 @@
         <v>0.1</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -925,7 +931,7 @@
         <v>0.1</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -945,7 +951,7 @@
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -965,7 +971,7 @@
         <v>0.1</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -985,7 +991,7 @@
         <v>0.1</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1005,7 +1011,7 @@
         <v>0.1</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1025,7 +1031,7 @@
         <v>0.1</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1045,7 +1051,7 @@
         <v>0.1</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1065,7 +1071,7 @@
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1085,7 +1091,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1105,7 +1111,7 @@
         <v>0.1</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1125,7 +1131,7 @@
         <v>0.1</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1145,7 +1151,7 @@
         <v>0.1</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1165,7 +1171,7 @@
         <v>0.1</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1185,7 +1191,7 @@
         <v>0.1</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1205,7 +1211,7 @@
         <v>0.1</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1225,7 +1231,7 @@
         <v>0.1</v>
       </c>
       <c r="F31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1245,7 +1251,7 @@
         <v>0.1</v>
       </c>
       <c r="F32" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1265,7 +1271,7 @@
         <v>0.1</v>
       </c>
       <c r="F33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1285,7 +1291,7 @@
         <v>0.1</v>
       </c>
       <c r="F34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1305,7 +1311,7 @@
         <v>0.1</v>
       </c>
       <c r="F35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1325,7 +1331,7 @@
         <v>0.1</v>
       </c>
       <c r="F36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1345,7 +1351,7 @@
         <v>0.1</v>
       </c>
       <c r="F37" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1365,7 +1371,7 @@
         <v>0.1</v>
       </c>
       <c r="F38" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1385,7 +1391,7 @@
         <v>0.1</v>
       </c>
       <c r="F39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1405,7 +1411,7 @@
         <v>0.1</v>
       </c>
       <c r="F40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1425,7 +1431,7 @@
         <v>0.1</v>
       </c>
       <c r="F41" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1445,7 +1451,7 @@
         <v>0.1</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1465,7 +1471,7 @@
         <v>0.1</v>
       </c>
       <c r="F43" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1485,7 +1491,7 @@
         <v>0.1</v>
       </c>
       <c r="F44" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1505,7 +1511,7 @@
         <v>0.1</v>
       </c>
       <c r="F45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1525,7 +1531,7 @@
         <v>0.1</v>
       </c>
       <c r="F46" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1545,7 +1551,7 @@
         <v>0.1</v>
       </c>
       <c r="F47" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1565,7 +1571,7 @@
         <v>0.1</v>
       </c>
       <c r="F48" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1585,7 +1591,7 @@
         <v>0.1</v>
       </c>
       <c r="F49" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1605,7 +1611,7 @@
         <v>0.1</v>
       </c>
       <c r="F50" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1625,7 +1631,7 @@
         <v>0.1</v>
       </c>
       <c r="F51" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1645,7 +1651,7 @@
         <v>0.1</v>
       </c>
       <c r="F52" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1665,7 +1671,7 @@
         <v>0.1</v>
       </c>
       <c r="F53" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1685,7 +1691,7 @@
         <v>0.1</v>
       </c>
       <c r="F54" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1705,7 +1711,7 @@
         <v>0.1</v>
       </c>
       <c r="F55" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1725,7 +1731,7 @@
         <v>0.1</v>
       </c>
       <c r="F56" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1745,7 +1751,7 @@
         <v>0.1</v>
       </c>
       <c r="F57" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1765,7 +1771,7 @@
         <v>0.1</v>
       </c>
       <c r="F58" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1785,7 +1791,7 @@
         <v>0.1</v>
       </c>
       <c r="F59" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1805,7 +1811,7 @@
         <v>0.1</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1825,7 +1831,7 @@
         <v>0.1</v>
       </c>
       <c r="F61" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1845,7 +1851,7 @@
         <v>0.1</v>
       </c>
       <c r="F62" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1865,7 +1871,7 @@
         <v>0.1</v>
       </c>
       <c r="F63" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1885,7 +1891,7 @@
         <v>0.1</v>
       </c>
       <c r="F64" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1905,7 +1911,7 @@
         <v>0.1</v>
       </c>
       <c r="F65" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1925,7 +1931,7 @@
         <v>0.1</v>
       </c>
       <c r="F66" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1945,7 +1951,7 @@
         <v>0.1</v>
       </c>
       <c r="F67" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1965,7 +1971,7 @@
         <v>0.1</v>
       </c>
       <c r="F68" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1985,7 +1991,7 @@
         <v>0.1</v>
       </c>
       <c r="F69" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2005,7 +2011,7 @@
         <v>0.1</v>
       </c>
       <c r="F70" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2025,7 +2031,7 @@
         <v>0.1</v>
       </c>
       <c r="F71" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2045,7 +2051,7 @@
         <v>0.1</v>
       </c>
       <c r="F72" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2065,7 +2071,47 @@
         <v>0.1</v>
       </c>
       <c r="F73" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
         <v>77</v>
+      </c>
+      <c r="C74">
+        <v>12.92</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0.1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75">
+        <v>12.91</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0.1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/CANTEL II.xlsx
+++ b/tablas_insivumeh/CANTEL II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
   <si>
     <t>Fecha</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>11/9/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:00:00 AM</t>
   </si>
   <si>
     <t>CANTEL II</t>
@@ -611,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,7 +657,7 @@
         <v>0.1</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -671,7 +677,7 @@
         <v>0.1</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -691,7 +697,7 @@
         <v>0.1</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -711,7 +717,7 @@
         <v>0.1</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -731,7 +737,7 @@
         <v>0.1</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -751,7 +757,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -771,7 +777,7 @@
         <v>0.1</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -791,7 +797,7 @@
         <v>0.1</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -811,7 +817,7 @@
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -831,7 +837,7 @@
         <v>0.1</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -851,7 +857,7 @@
         <v>0.1</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -871,7 +877,7 @@
         <v>0.1</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -891,7 +897,7 @@
         <v>0.1</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -911,7 +917,7 @@
         <v>0.1</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -931,7 +937,7 @@
         <v>0.1</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -951,7 +957,7 @@
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -971,7 +977,7 @@
         <v>0.1</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -991,7 +997,7 @@
         <v>0.1</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1011,7 +1017,7 @@
         <v>0.1</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1031,7 +1037,7 @@
         <v>0.1</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1051,7 +1057,7 @@
         <v>0.1</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1071,7 +1077,7 @@
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1091,7 +1097,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1111,7 +1117,7 @@
         <v>0.1</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1131,7 +1137,7 @@
         <v>0.1</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1151,7 +1157,7 @@
         <v>0.1</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1171,7 +1177,7 @@
         <v>0.1</v>
       </c>
       <c r="F28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1191,7 +1197,7 @@
         <v>0.1</v>
       </c>
       <c r="F29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1211,7 +1217,7 @@
         <v>0.1</v>
       </c>
       <c r="F30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1231,7 +1237,7 @@
         <v>0.1</v>
       </c>
       <c r="F31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1251,7 +1257,7 @@
         <v>0.1</v>
       </c>
       <c r="F32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1271,7 +1277,7 @@
         <v>0.1</v>
       </c>
       <c r="F33" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1291,7 +1297,7 @@
         <v>0.1</v>
       </c>
       <c r="F34" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1311,7 +1317,7 @@
         <v>0.1</v>
       </c>
       <c r="F35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1331,7 +1337,7 @@
         <v>0.1</v>
       </c>
       <c r="F36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1351,7 +1357,7 @@
         <v>0.1</v>
       </c>
       <c r="F37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1371,7 +1377,7 @@
         <v>0.1</v>
       </c>
       <c r="F38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1391,7 +1397,7 @@
         <v>0.1</v>
       </c>
       <c r="F39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1411,7 +1417,7 @@
         <v>0.1</v>
       </c>
       <c r="F40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1431,7 +1437,7 @@
         <v>0.1</v>
       </c>
       <c r="F41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1451,7 +1457,7 @@
         <v>0.1</v>
       </c>
       <c r="F42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1471,7 +1477,7 @@
         <v>0.1</v>
       </c>
       <c r="F43" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1491,7 +1497,7 @@
         <v>0.1</v>
       </c>
       <c r="F44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1511,7 +1517,7 @@
         <v>0.1</v>
       </c>
       <c r="F45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1531,7 +1537,7 @@
         <v>0.1</v>
       </c>
       <c r="F46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1551,7 +1557,7 @@
         <v>0.1</v>
       </c>
       <c r="F47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1571,7 +1577,7 @@
         <v>0.1</v>
       </c>
       <c r="F48" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1591,7 +1597,7 @@
         <v>0.1</v>
       </c>
       <c r="F49" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1611,7 +1617,7 @@
         <v>0.1</v>
       </c>
       <c r="F50" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1631,7 +1637,7 @@
         <v>0.1</v>
       </c>
       <c r="F51" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1651,7 +1657,7 @@
         <v>0.1</v>
       </c>
       <c r="F52" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1671,7 +1677,7 @@
         <v>0.1</v>
       </c>
       <c r="F53" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1691,7 +1697,7 @@
         <v>0.1</v>
       </c>
       <c r="F54" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1711,7 +1717,7 @@
         <v>0.1</v>
       </c>
       <c r="F55" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1731,7 +1737,7 @@
         <v>0.1</v>
       </c>
       <c r="F56" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1751,7 +1757,7 @@
         <v>0.1</v>
       </c>
       <c r="F57" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1771,7 +1777,7 @@
         <v>0.1</v>
       </c>
       <c r="F58" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1791,7 +1797,7 @@
         <v>0.1</v>
       </c>
       <c r="F59" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1811,7 +1817,7 @@
         <v>0.1</v>
       </c>
       <c r="F60" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1831,7 +1837,7 @@
         <v>0.1</v>
       </c>
       <c r="F61" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1851,7 +1857,7 @@
         <v>0.1</v>
       </c>
       <c r="F62" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1871,7 +1877,7 @@
         <v>0.1</v>
       </c>
       <c r="F63" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1891,7 +1897,7 @@
         <v>0.1</v>
       </c>
       <c r="F64" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1911,7 +1917,7 @@
         <v>0.1</v>
       </c>
       <c r="F65" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1931,7 +1937,7 @@
         <v>0.1</v>
       </c>
       <c r="F66" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1951,7 +1957,7 @@
         <v>0.1</v>
       </c>
       <c r="F67" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1971,7 +1977,7 @@
         <v>0.1</v>
       </c>
       <c r="F68" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1991,7 +1997,7 @@
         <v>0.1</v>
       </c>
       <c r="F69" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2011,7 +2017,7 @@
         <v>0.1</v>
       </c>
       <c r="F70" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2031,7 +2037,7 @@
         <v>0.1</v>
       </c>
       <c r="F71" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2051,7 +2057,7 @@
         <v>0.1</v>
       </c>
       <c r="F72" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2071,7 +2077,7 @@
         <v>0.1</v>
       </c>
       <c r="F73" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2091,7 +2097,7 @@
         <v>0.1</v>
       </c>
       <c r="F74" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2111,7 +2117,47 @@
         <v>0.1</v>
       </c>
       <c r="F75" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
         <v>79</v>
+      </c>
+      <c r="C76">
+        <v>12.88</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0.1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77">
+        <v>12.86</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0.1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/CANTEL II.xlsx
+++ b/tablas_insivumeh/CANTEL II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="83">
   <si>
     <t>Fecha</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>11/9/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:00:00 AM</t>
   </si>
   <si>
     <t>CANTEL II</t>
@@ -617,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,7 +660,7 @@
         <v>0.1</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -677,7 +680,7 @@
         <v>0.1</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -697,7 +700,7 @@
         <v>0.1</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -717,7 +720,7 @@
         <v>0.1</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -737,7 +740,7 @@
         <v>0.1</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -757,7 +760,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -777,7 +780,7 @@
         <v>0.1</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -797,7 +800,7 @@
         <v>0.1</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -817,7 +820,7 @@
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -837,7 +840,7 @@
         <v>0.1</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -857,7 +860,7 @@
         <v>0.1</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -877,7 +880,7 @@
         <v>0.1</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -897,7 +900,7 @@
         <v>0.1</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -917,7 +920,7 @@
         <v>0.1</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -937,7 +940,7 @@
         <v>0.1</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -957,7 +960,7 @@
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -977,7 +980,7 @@
         <v>0.1</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -997,7 +1000,7 @@
         <v>0.1</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1017,7 +1020,7 @@
         <v>0.1</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1037,7 +1040,7 @@
         <v>0.1</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1057,7 +1060,7 @@
         <v>0.1</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1077,7 +1080,7 @@
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1097,7 +1100,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1117,7 +1120,7 @@
         <v>0.1</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1137,7 +1140,7 @@
         <v>0.1</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1157,7 +1160,7 @@
         <v>0.1</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1177,7 +1180,7 @@
         <v>0.1</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1197,7 +1200,7 @@
         <v>0.1</v>
       </c>
       <c r="F29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1217,7 +1220,7 @@
         <v>0.1</v>
       </c>
       <c r="F30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1237,7 +1240,7 @@
         <v>0.1</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1257,7 +1260,7 @@
         <v>0.1</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1277,7 +1280,7 @@
         <v>0.1</v>
       </c>
       <c r="F33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1297,7 +1300,7 @@
         <v>0.1</v>
       </c>
       <c r="F34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1317,7 +1320,7 @@
         <v>0.1</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1337,7 +1340,7 @@
         <v>0.1</v>
       </c>
       <c r="F36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1357,7 +1360,7 @@
         <v>0.1</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1377,7 +1380,7 @@
         <v>0.1</v>
       </c>
       <c r="F38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1397,7 +1400,7 @@
         <v>0.1</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1417,7 +1420,7 @@
         <v>0.1</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1437,7 +1440,7 @@
         <v>0.1</v>
       </c>
       <c r="F41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1457,7 +1460,7 @@
         <v>0.1</v>
       </c>
       <c r="F42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1477,7 +1480,7 @@
         <v>0.1</v>
       </c>
       <c r="F43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1497,7 +1500,7 @@
         <v>0.1</v>
       </c>
       <c r="F44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1517,7 +1520,7 @@
         <v>0.1</v>
       </c>
       <c r="F45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1537,7 +1540,7 @@
         <v>0.1</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1557,7 +1560,7 @@
         <v>0.1</v>
       </c>
       <c r="F47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1577,7 +1580,7 @@
         <v>0.1</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1597,7 +1600,7 @@
         <v>0.1</v>
       </c>
       <c r="F49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1617,7 +1620,7 @@
         <v>0.1</v>
       </c>
       <c r="F50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1637,7 +1640,7 @@
         <v>0.1</v>
       </c>
       <c r="F51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1657,7 +1660,7 @@
         <v>0.1</v>
       </c>
       <c r="F52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1677,7 +1680,7 @@
         <v>0.1</v>
       </c>
       <c r="F53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1697,7 +1700,7 @@
         <v>0.1</v>
       </c>
       <c r="F54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1717,7 +1720,7 @@
         <v>0.1</v>
       </c>
       <c r="F55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1737,7 +1740,7 @@
         <v>0.1</v>
       </c>
       <c r="F56" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1757,7 +1760,7 @@
         <v>0.1</v>
       </c>
       <c r="F57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1777,7 +1780,7 @@
         <v>0.1</v>
       </c>
       <c r="F58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1797,7 +1800,7 @@
         <v>0.1</v>
       </c>
       <c r="F59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1817,7 +1820,7 @@
         <v>0.1</v>
       </c>
       <c r="F60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1837,7 +1840,7 @@
         <v>0.1</v>
       </c>
       <c r="F61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1857,7 +1860,7 @@
         <v>0.1</v>
       </c>
       <c r="F62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1877,7 +1880,7 @@
         <v>0.1</v>
       </c>
       <c r="F63" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1897,7 +1900,7 @@
         <v>0.1</v>
       </c>
       <c r="F64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1917,7 +1920,7 @@
         <v>0.1</v>
       </c>
       <c r="F65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1937,7 +1940,7 @@
         <v>0.1</v>
       </c>
       <c r="F66" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1957,7 +1960,7 @@
         <v>0.1</v>
       </c>
       <c r="F67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1977,7 +1980,7 @@
         <v>0.1</v>
       </c>
       <c r="F68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1997,7 +2000,7 @@
         <v>0.1</v>
       </c>
       <c r="F69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2017,7 +2020,7 @@
         <v>0.1</v>
       </c>
       <c r="F70" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2037,7 +2040,7 @@
         <v>0.1</v>
       </c>
       <c r="F71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2057,7 +2060,7 @@
         <v>0.1</v>
       </c>
       <c r="F72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2077,7 +2080,7 @@
         <v>0.1</v>
       </c>
       <c r="F73" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2097,7 +2100,7 @@
         <v>0.1</v>
       </c>
       <c r="F74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2117,7 +2120,7 @@
         <v>0.1</v>
       </c>
       <c r="F75" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2137,7 +2140,7 @@
         <v>0.1</v>
       </c>
       <c r="F76" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2157,7 +2160,27 @@
         <v>0.1</v>
       </c>
       <c r="F77" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
         <v>81</v>
+      </c>
+      <c r="C78">
+        <v>12.83</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0.1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/CANTEL II.xlsx
+++ b/tablas_insivumeh/CANTEL II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="85">
   <si>
     <t>Fecha</t>
   </si>
@@ -260,6 +260,12 @@
   </si>
   <si>
     <t>11/9/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:00:00 AM</t>
   </si>
   <si>
     <t>CANTEL II</t>
@@ -620,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,7 +666,7 @@
         <v>0.1</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -680,7 +686,7 @@
         <v>0.1</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -700,7 +706,7 @@
         <v>0.1</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -720,7 +726,7 @@
         <v>0.1</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -740,7 +746,7 @@
         <v>0.1</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -760,7 +766,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -780,7 +786,7 @@
         <v>0.1</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -800,7 +806,7 @@
         <v>0.1</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -820,7 +826,7 @@
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -840,7 +846,7 @@
         <v>0.1</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -860,7 +866,7 @@
         <v>0.1</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -880,7 +886,7 @@
         <v>0.1</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -900,7 +906,7 @@
         <v>0.1</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -920,7 +926,7 @@
         <v>0.1</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -940,7 +946,7 @@
         <v>0.1</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -960,7 +966,7 @@
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -980,7 +986,7 @@
         <v>0.1</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1000,7 +1006,7 @@
         <v>0.1</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1020,7 +1026,7 @@
         <v>0.1</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1040,7 +1046,7 @@
         <v>0.1</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1060,7 +1066,7 @@
         <v>0.1</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1080,7 +1086,7 @@
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1100,7 +1106,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1120,7 +1126,7 @@
         <v>0.1</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1140,7 +1146,7 @@
         <v>0.1</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1160,7 +1166,7 @@
         <v>0.1</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1180,7 +1186,7 @@
         <v>0.1</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1200,7 +1206,7 @@
         <v>0.1</v>
       </c>
       <c r="F29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1220,7 +1226,7 @@
         <v>0.1</v>
       </c>
       <c r="F30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1240,7 +1246,7 @@
         <v>0.1</v>
       </c>
       <c r="F31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1260,7 +1266,7 @@
         <v>0.1</v>
       </c>
       <c r="F32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1280,7 +1286,7 @@
         <v>0.1</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1300,7 +1306,7 @@
         <v>0.1</v>
       </c>
       <c r="F34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1320,7 +1326,7 @@
         <v>0.1</v>
       </c>
       <c r="F35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1340,7 +1346,7 @@
         <v>0.1</v>
       </c>
       <c r="F36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1360,7 +1366,7 @@
         <v>0.1</v>
       </c>
       <c r="F37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1380,7 +1386,7 @@
         <v>0.1</v>
       </c>
       <c r="F38" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1400,7 +1406,7 @@
         <v>0.1</v>
       </c>
       <c r="F39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1420,7 +1426,7 @@
         <v>0.1</v>
       </c>
       <c r="F40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1440,7 +1446,7 @@
         <v>0.1</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1460,7 +1466,7 @@
         <v>0.1</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1480,7 +1486,7 @@
         <v>0.1</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1500,7 +1506,7 @@
         <v>0.1</v>
       </c>
       <c r="F44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1520,7 +1526,7 @@
         <v>0.1</v>
       </c>
       <c r="F45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1540,7 +1546,7 @@
         <v>0.1</v>
       </c>
       <c r="F46" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1560,7 +1566,7 @@
         <v>0.1</v>
       </c>
       <c r="F47" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1580,7 +1586,7 @@
         <v>0.1</v>
       </c>
       <c r="F48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1600,7 +1606,7 @@
         <v>0.1</v>
       </c>
       <c r="F49" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1620,7 +1626,7 @@
         <v>0.1</v>
       </c>
       <c r="F50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1640,7 +1646,7 @@
         <v>0.1</v>
       </c>
       <c r="F51" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1660,7 +1666,7 @@
         <v>0.1</v>
       </c>
       <c r="F52" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1680,7 +1686,7 @@
         <v>0.1</v>
       </c>
       <c r="F53" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1700,7 +1706,7 @@
         <v>0.1</v>
       </c>
       <c r="F54" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1720,7 +1726,7 @@
         <v>0.1</v>
       </c>
       <c r="F55" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1740,7 +1746,7 @@
         <v>0.1</v>
       </c>
       <c r="F56" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1760,7 +1766,7 @@
         <v>0.1</v>
       </c>
       <c r="F57" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1780,7 +1786,7 @@
         <v>0.1</v>
       </c>
       <c r="F58" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1800,7 +1806,7 @@
         <v>0.1</v>
       </c>
       <c r="F59" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1820,7 +1826,7 @@
         <v>0.1</v>
       </c>
       <c r="F60" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1840,7 +1846,7 @@
         <v>0.1</v>
       </c>
       <c r="F61" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1860,7 +1866,7 @@
         <v>0.1</v>
       </c>
       <c r="F62" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1880,7 +1886,7 @@
         <v>0.1</v>
       </c>
       <c r="F63" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1900,7 +1906,7 @@
         <v>0.1</v>
       </c>
       <c r="F64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1920,7 +1926,7 @@
         <v>0.1</v>
       </c>
       <c r="F65" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1940,7 +1946,7 @@
         <v>0.1</v>
       </c>
       <c r="F66" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1960,7 +1966,7 @@
         <v>0.1</v>
       </c>
       <c r="F67" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1980,7 +1986,7 @@
         <v>0.1</v>
       </c>
       <c r="F68" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2000,7 +2006,7 @@
         <v>0.1</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2020,7 +2026,7 @@
         <v>0.1</v>
       </c>
       <c r="F70" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2040,7 +2046,7 @@
         <v>0.1</v>
       </c>
       <c r="F71" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2060,7 +2066,7 @@
         <v>0.1</v>
       </c>
       <c r="F72" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2080,7 +2086,7 @@
         <v>0.1</v>
       </c>
       <c r="F73" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2100,7 +2106,7 @@
         <v>0.1</v>
       </c>
       <c r="F74" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2120,7 +2126,7 @@
         <v>0.1</v>
       </c>
       <c r="F75" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2140,7 +2146,7 @@
         <v>0.1</v>
       </c>
       <c r="F76" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2160,7 +2166,7 @@
         <v>0.1</v>
       </c>
       <c r="F77" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2180,7 +2186,47 @@
         <v>0.1</v>
       </c>
       <c r="F78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
         <v>82</v>
+      </c>
+      <c r="C79">
+        <v>12.8</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0.1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80">
+        <v>12.78</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0.1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/CANTEL II.xlsx
+++ b/tablas_insivumeh/CANTEL II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="86">
   <si>
     <t>Fecha</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>11/9/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:00:00 AM</t>
   </si>
   <si>
     <t>CANTEL II</t>
@@ -626,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,7 +669,7 @@
         <v>0.1</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -686,7 +689,7 @@
         <v>0.1</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -706,7 +709,7 @@
         <v>0.1</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -726,7 +729,7 @@
         <v>0.1</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -746,7 +749,7 @@
         <v>0.1</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -766,7 +769,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -786,7 +789,7 @@
         <v>0.1</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -806,7 +809,7 @@
         <v>0.1</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -826,7 +829,7 @@
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -846,7 +849,7 @@
         <v>0.1</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -866,7 +869,7 @@
         <v>0.1</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -886,7 +889,7 @@
         <v>0.1</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -906,7 +909,7 @@
         <v>0.1</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -926,7 +929,7 @@
         <v>0.1</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -946,7 +949,7 @@
         <v>0.1</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -966,7 +969,7 @@
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -986,7 +989,7 @@
         <v>0.1</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1006,7 +1009,7 @@
         <v>0.1</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1026,7 +1029,7 @@
         <v>0.1</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1046,7 +1049,7 @@
         <v>0.1</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1066,7 +1069,7 @@
         <v>0.1</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1086,7 +1089,7 @@
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1106,7 +1109,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1126,7 +1129,7 @@
         <v>0.1</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1146,7 +1149,7 @@
         <v>0.1</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1166,7 +1169,7 @@
         <v>0.1</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1186,7 +1189,7 @@
         <v>0.1</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1206,7 +1209,7 @@
         <v>0.1</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1226,7 +1229,7 @@
         <v>0.1</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1246,7 +1249,7 @@
         <v>0.1</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1266,7 +1269,7 @@
         <v>0.1</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1286,7 +1289,7 @@
         <v>0.1</v>
       </c>
       <c r="F33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1306,7 +1309,7 @@
         <v>0.1</v>
       </c>
       <c r="F34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1326,7 +1329,7 @@
         <v>0.1</v>
       </c>
       <c r="F35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1346,7 +1349,7 @@
         <v>0.1</v>
       </c>
       <c r="F36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1366,7 +1369,7 @@
         <v>0.1</v>
       </c>
       <c r="F37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1386,7 +1389,7 @@
         <v>0.1</v>
       </c>
       <c r="F38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1406,7 +1409,7 @@
         <v>0.1</v>
       </c>
       <c r="F39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1426,7 +1429,7 @@
         <v>0.1</v>
       </c>
       <c r="F40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1446,7 +1449,7 @@
         <v>0.1</v>
       </c>
       <c r="F41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1466,7 +1469,7 @@
         <v>0.1</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1486,7 +1489,7 @@
         <v>0.1</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1506,7 +1509,7 @@
         <v>0.1</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1526,7 +1529,7 @@
         <v>0.1</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1546,7 +1549,7 @@
         <v>0.1</v>
       </c>
       <c r="F46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1566,7 +1569,7 @@
         <v>0.1</v>
       </c>
       <c r="F47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1586,7 +1589,7 @@
         <v>0.1</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1606,7 +1609,7 @@
         <v>0.1</v>
       </c>
       <c r="F49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1626,7 +1629,7 @@
         <v>0.1</v>
       </c>
       <c r="F50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1646,7 +1649,7 @@
         <v>0.1</v>
       </c>
       <c r="F51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1666,7 +1669,7 @@
         <v>0.1</v>
       </c>
       <c r="F52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1686,7 +1689,7 @@
         <v>0.1</v>
       </c>
       <c r="F53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1706,7 +1709,7 @@
         <v>0.1</v>
       </c>
       <c r="F54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1726,7 +1729,7 @@
         <v>0.1</v>
       </c>
       <c r="F55" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1746,7 +1749,7 @@
         <v>0.1</v>
       </c>
       <c r="F56" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1766,7 +1769,7 @@
         <v>0.1</v>
       </c>
       <c r="F57" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1786,7 +1789,7 @@
         <v>0.1</v>
       </c>
       <c r="F58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1806,7 +1809,7 @@
         <v>0.1</v>
       </c>
       <c r="F59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1826,7 +1829,7 @@
         <v>0.1</v>
       </c>
       <c r="F60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1846,7 +1849,7 @@
         <v>0.1</v>
       </c>
       <c r="F61" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1866,7 +1869,7 @@
         <v>0.1</v>
       </c>
       <c r="F62" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1886,7 +1889,7 @@
         <v>0.1</v>
       </c>
       <c r="F63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1906,7 +1909,7 @@
         <v>0.1</v>
       </c>
       <c r="F64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1926,7 +1929,7 @@
         <v>0.1</v>
       </c>
       <c r="F65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1946,7 +1949,7 @@
         <v>0.1</v>
       </c>
       <c r="F66" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1966,7 +1969,7 @@
         <v>0.1</v>
       </c>
       <c r="F67" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1986,7 +1989,7 @@
         <v>0.1</v>
       </c>
       <c r="F68" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2006,7 +2009,7 @@
         <v>0.1</v>
       </c>
       <c r="F69" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2026,7 +2029,7 @@
         <v>0.1</v>
       </c>
       <c r="F70" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2046,7 +2049,7 @@
         <v>0.1</v>
       </c>
       <c r="F71" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2066,7 +2069,7 @@
         <v>0.1</v>
       </c>
       <c r="F72" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2086,7 +2089,7 @@
         <v>0.1</v>
       </c>
       <c r="F73" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2106,7 +2109,7 @@
         <v>0.1</v>
       </c>
       <c r="F74" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2126,7 +2129,7 @@
         <v>0.1</v>
       </c>
       <c r="F75" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2146,7 +2149,7 @@
         <v>0.1</v>
       </c>
       <c r="F76" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2166,7 +2169,7 @@
         <v>0.1</v>
       </c>
       <c r="F77" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2186,7 +2189,7 @@
         <v>0.1</v>
       </c>
       <c r="F78" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2206,7 +2209,7 @@
         <v>0.1</v>
       </c>
       <c r="F79" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2226,7 +2229,27 @@
         <v>0.1</v>
       </c>
       <c r="F80" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
         <v>84</v>
+      </c>
+      <c r="C81">
+        <v>12.96</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0.1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/CANTEL II.xlsx
+++ b/tablas_insivumeh/CANTEL II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="88">
   <si>
     <t>Fecha</t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t>11/9/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 9:00:00 AM</t>
   </si>
   <si>
     <t>CANTEL II</t>
@@ -629,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,7 +675,7 @@
         <v>0.1</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -689,7 +695,7 @@
         <v>0.1</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -709,7 +715,7 @@
         <v>0.1</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -729,7 +735,7 @@
         <v>0.1</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -749,7 +755,7 @@
         <v>0.1</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -769,7 +775,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -789,7 +795,7 @@
         <v>0.1</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -809,7 +815,7 @@
         <v>0.1</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -829,7 +835,7 @@
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -849,7 +855,7 @@
         <v>0.1</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -869,7 +875,7 @@
         <v>0.1</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -889,7 +895,7 @@
         <v>0.1</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -909,7 +915,7 @@
         <v>0.1</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -929,7 +935,7 @@
         <v>0.1</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -949,7 +955,7 @@
         <v>0.1</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -969,7 +975,7 @@
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -989,7 +995,7 @@
         <v>0.1</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1009,7 +1015,7 @@
         <v>0.1</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1029,7 +1035,7 @@
         <v>0.1</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1049,7 +1055,7 @@
         <v>0.1</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1069,7 +1075,7 @@
         <v>0.1</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1089,7 +1095,7 @@
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1109,7 +1115,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1129,7 +1135,7 @@
         <v>0.1</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1149,7 +1155,7 @@
         <v>0.1</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1169,7 +1175,7 @@
         <v>0.1</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1189,7 +1195,7 @@
         <v>0.1</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1209,7 +1215,7 @@
         <v>0.1</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1229,7 +1235,7 @@
         <v>0.1</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1249,7 +1255,7 @@
         <v>0.1</v>
       </c>
       <c r="F31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1269,7 +1275,7 @@
         <v>0.1</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1289,7 +1295,7 @@
         <v>0.1</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1309,7 +1315,7 @@
         <v>0.1</v>
       </c>
       <c r="F34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1329,7 +1335,7 @@
         <v>0.1</v>
       </c>
       <c r="F35" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1349,7 +1355,7 @@
         <v>0.1</v>
       </c>
       <c r="F36" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1369,7 +1375,7 @@
         <v>0.1</v>
       </c>
       <c r="F37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1389,7 +1395,7 @@
         <v>0.1</v>
       </c>
       <c r="F38" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1409,7 +1415,7 @@
         <v>0.1</v>
       </c>
       <c r="F39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1429,7 +1435,7 @@
         <v>0.1</v>
       </c>
       <c r="F40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1449,7 +1455,7 @@
         <v>0.1</v>
       </c>
       <c r="F41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1469,7 +1475,7 @@
         <v>0.1</v>
       </c>
       <c r="F42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1489,7 +1495,7 @@
         <v>0.1</v>
       </c>
       <c r="F43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1509,7 +1515,7 @@
         <v>0.1</v>
       </c>
       <c r="F44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1529,7 +1535,7 @@
         <v>0.1</v>
       </c>
       <c r="F45" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1549,7 +1555,7 @@
         <v>0.1</v>
       </c>
       <c r="F46" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1569,7 +1575,7 @@
         <v>0.1</v>
       </c>
       <c r="F47" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1589,7 +1595,7 @@
         <v>0.1</v>
       </c>
       <c r="F48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1609,7 +1615,7 @@
         <v>0.1</v>
       </c>
       <c r="F49" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1629,7 +1635,7 @@
         <v>0.1</v>
       </c>
       <c r="F50" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1649,7 +1655,7 @@
         <v>0.1</v>
       </c>
       <c r="F51" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1669,7 +1675,7 @@
         <v>0.1</v>
       </c>
       <c r="F52" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1689,7 +1695,7 @@
         <v>0.1</v>
       </c>
       <c r="F53" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1709,7 +1715,7 @@
         <v>0.1</v>
       </c>
       <c r="F54" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1729,7 +1735,7 @@
         <v>0.1</v>
       </c>
       <c r="F55" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1749,7 +1755,7 @@
         <v>0.1</v>
       </c>
       <c r="F56" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1769,7 +1775,7 @@
         <v>0.1</v>
       </c>
       <c r="F57" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1789,7 +1795,7 @@
         <v>0.1</v>
       </c>
       <c r="F58" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1809,7 +1815,7 @@
         <v>0.1</v>
       </c>
       <c r="F59" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1829,7 +1835,7 @@
         <v>0.1</v>
       </c>
       <c r="F60" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1849,7 +1855,7 @@
         <v>0.1</v>
       </c>
       <c r="F61" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1869,7 +1875,7 @@
         <v>0.1</v>
       </c>
       <c r="F62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1889,7 +1895,7 @@
         <v>0.1</v>
       </c>
       <c r="F63" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1909,7 +1915,7 @@
         <v>0.1</v>
       </c>
       <c r="F64" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1929,7 +1935,7 @@
         <v>0.1</v>
       </c>
       <c r="F65" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1949,7 +1955,7 @@
         <v>0.1</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1969,7 +1975,7 @@
         <v>0.1</v>
       </c>
       <c r="F67" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1989,7 +1995,7 @@
         <v>0.1</v>
       </c>
       <c r="F68" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2009,7 +2015,7 @@
         <v>0.1</v>
       </c>
       <c r="F69" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2029,7 +2035,7 @@
         <v>0.1</v>
       </c>
       <c r="F70" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2049,7 +2055,7 @@
         <v>0.1</v>
       </c>
       <c r="F71" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2069,7 +2075,7 @@
         <v>0.1</v>
       </c>
       <c r="F72" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2089,7 +2095,7 @@
         <v>0.1</v>
       </c>
       <c r="F73" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2109,7 +2115,7 @@
         <v>0.1</v>
       </c>
       <c r="F74" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2129,7 +2135,7 @@
         <v>0.1</v>
       </c>
       <c r="F75" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2149,7 +2155,7 @@
         <v>0.1</v>
       </c>
       <c r="F76" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2169,7 +2175,7 @@
         <v>0.1</v>
       </c>
       <c r="F77" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2189,7 +2195,7 @@
         <v>0.1</v>
       </c>
       <c r="F78" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2209,7 +2215,7 @@
         <v>0.1</v>
       </c>
       <c r="F79" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2229,7 +2235,7 @@
         <v>0.1</v>
       </c>
       <c r="F80" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2249,7 +2255,47 @@
         <v>0.1</v>
       </c>
       <c r="F81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
         <v>85</v>
+      </c>
+      <c r="C82">
+        <v>13.55</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0.1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83">
+        <v>13.59</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0.1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/CANTEL II.xlsx
+++ b/tablas_insivumeh/CANTEL II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
   <si>
     <t>Fecha</t>
   </si>
@@ -31,250 +31,271 @@
     <t>Estación</t>
   </si>
   <si>
-    <t>11/6/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/9/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 9:00:00 AM</t>
+    <t>11/10/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 4:00:00 PM</t>
   </si>
   <si>
     <t>CANTEL II</t>
@@ -635,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,7 +687,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>12.85</v>
+        <v>12.89</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -675,7 +696,7 @@
         <v>0.1</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -686,7 +707,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>12.81</v>
+        <v>12.88</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -695,7 +716,7 @@
         <v>0.1</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -706,7 +727,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>12.75</v>
+        <v>12.86</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -715,7 +736,7 @@
         <v>0.1</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -726,7 +747,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>12.72</v>
+        <v>12.84</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -735,7 +756,7 @@
         <v>0.1</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -746,7 +767,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>12.71</v>
+        <v>12.82</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -755,7 +776,7 @@
         <v>0.1</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -766,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>12.7</v>
+        <v>12.79</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -775,7 +796,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -786,16 +807,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>12.69</v>
+        <v>12.76</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0.1</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -806,7 +827,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>12.71</v>
+        <v>12.85</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -815,7 +836,7 @@
         <v>0.1</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -826,16 +847,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>12.91</v>
+        <v>13.39</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -846,7 +867,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>13.44</v>
+        <v>13.55</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -855,7 +876,7 @@
         <v>0.1</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -866,7 +887,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>13.55</v>
+        <v>13.6</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -875,7 +896,7 @@
         <v>0.1</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -886,7 +907,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>13.56</v>
+        <v>13.62</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -895,7 +916,7 @@
         <v>0.1</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -906,7 +927,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>13.59</v>
+        <v>13.63</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -915,7 +936,7 @@
         <v>0.1</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -926,7 +947,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>13.6</v>
+        <v>13.62</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -935,7 +956,7 @@
         <v>0.1</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -946,7 +967,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -955,7 +976,7 @@
         <v>0.1</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -966,7 +987,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -975,7 +996,7 @@
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -986,7 +1007,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>13.58</v>
+        <v>13.56</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -995,7 +1016,7 @@
         <v>0.1</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1006,7 +1027,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>13.37</v>
+        <v>13.51</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1015,7 +1036,7 @@
         <v>0.1</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1026,7 +1047,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>13.08</v>
+        <v>13.06</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1035,7 +1056,7 @@
         <v>0.1</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1046,16 +1067,16 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>13.02</v>
+        <v>12.98</v>
       </c>
       <c r="D21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0.1</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1066,7 +1087,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>12.99</v>
+        <v>12.96</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1075,7 +1096,7 @@
         <v>0.1</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1086,7 +1107,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>12.97</v>
+        <v>12.94</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1095,7 +1116,7 @@
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1106,7 +1127,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>12.96</v>
+        <v>12.93</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1115,7 +1136,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1126,7 +1147,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>12.94</v>
+        <v>12.92</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1135,7 +1156,7 @@
         <v>0.1</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1146,7 +1167,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>12.93</v>
+        <v>12.91</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1155,7 +1176,7 @@
         <v>0.1</v>
       </c>
       <c r="F26" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1166,7 +1187,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>12.92</v>
+        <v>12.9</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1175,7 +1196,7 @@
         <v>0.1</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1186,7 +1207,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>12.9</v>
+        <v>12.87</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1195,7 +1216,7 @@
         <v>0.1</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1206,7 +1227,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>12.89</v>
+        <v>12.85</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1215,7 +1236,7 @@
         <v>0.1</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1226,7 +1247,7 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>12.87</v>
+        <v>12.82</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1235,7 +1256,7 @@
         <v>0.1</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1246,7 +1267,7 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>12.85</v>
+        <v>12.78</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1255,7 +1276,7 @@
         <v>0.1</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1266,7 +1287,7 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>12.83</v>
+        <v>12.76</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1275,7 +1296,7 @@
         <v>0.1</v>
       </c>
       <c r="F32" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1286,7 +1307,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>13.04</v>
+        <v>12.79</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1295,7 +1316,7 @@
         <v>0.1</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1306,7 +1327,7 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>13.49</v>
+        <v>13.22</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1315,7 +1336,7 @@
         <v>0.1</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1326,7 +1347,7 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>13.57</v>
+        <v>13.53</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1335,7 +1356,7 @@
         <v>0.1</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1346,7 +1367,7 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>13.58</v>
+        <v>13.59</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1355,7 +1376,7 @@
         <v>0.1</v>
       </c>
       <c r="F36" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1366,7 +1387,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1375,7 +1396,7 @@
         <v>0.1</v>
       </c>
       <c r="F37" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1386,7 +1407,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>13.6</v>
+        <v>13.62</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1395,7 +1416,7 @@
         <v>0.1</v>
       </c>
       <c r="F38" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1406,7 +1427,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1415,7 +1436,7 @@
         <v>0.1</v>
       </c>
       <c r="F39" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1426,16 +1447,16 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D40">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0.1</v>
       </c>
       <c r="F40" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1446,7 +1467,7 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1455,7 +1476,7 @@
         <v>0.1</v>
       </c>
       <c r="F41" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1466,7 +1487,7 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>13.42</v>
+        <v>13.61</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1475,7 +1496,7 @@
         <v>0.1</v>
       </c>
       <c r="F42" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1486,7 +1507,7 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>13.15</v>
+        <v>13.57</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1495,7 +1516,7 @@
         <v>0.1</v>
       </c>
       <c r="F43" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1506,7 +1527,7 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>13.02</v>
+        <v>13.08</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1515,7 +1536,7 @@
         <v>0.1</v>
       </c>
       <c r="F44" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1535,7 +1556,7 @@
         <v>0.1</v>
       </c>
       <c r="F45" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1546,7 +1567,7 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>12.98</v>
+        <v>12.97</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1555,7 +1576,7 @@
         <v>0.1</v>
       </c>
       <c r="F46" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1566,7 +1587,7 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>12.96</v>
+        <v>12.95</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1575,7 +1596,7 @@
         <v>0.1</v>
       </c>
       <c r="F47" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1586,7 +1607,7 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>12.94</v>
+        <v>12.93</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1595,7 +1616,7 @@
         <v>0.1</v>
       </c>
       <c r="F48" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1606,7 +1627,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>12.93</v>
+        <v>12.92</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1615,7 +1636,7 @@
         <v>0.1</v>
       </c>
       <c r="F49" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1626,7 +1647,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>12.92</v>
+        <v>12.91</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1635,7 +1656,7 @@
         <v>0.1</v>
       </c>
       <c r="F50" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1646,7 +1667,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>12.9</v>
+        <v>12.89</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1655,7 +1676,7 @@
         <v>0.1</v>
       </c>
       <c r="F51" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1675,7 +1696,7 @@
         <v>0.1</v>
       </c>
       <c r="F52" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1686,7 +1707,7 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>12.85</v>
+        <v>12.84</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1695,7 +1716,7 @@
         <v>0.1</v>
       </c>
       <c r="F53" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1706,7 +1727,7 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>12.83</v>
+        <v>12.82</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1715,7 +1736,7 @@
         <v>0.1</v>
       </c>
       <c r="F54" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1726,7 +1747,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>12.8</v>
+        <v>12.78</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1735,7 +1756,7 @@
         <v>0.1</v>
       </c>
       <c r="F55" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1746,7 +1767,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>12.79</v>
+        <v>12.74</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1755,7 +1776,7 @@
         <v>0.1</v>
       </c>
       <c r="F56" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1766,7 +1787,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>12.96</v>
+        <v>12.85</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1775,7 +1796,7 @@
         <v>0.1</v>
       </c>
       <c r="F57" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1786,7 +1807,7 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>13.44</v>
+        <v>13.54</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1795,7 +1816,7 @@
         <v>0.1</v>
       </c>
       <c r="F58" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1806,7 +1827,7 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>13.55</v>
+        <v>13.58</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1815,7 +1836,7 @@
         <v>0.1</v>
       </c>
       <c r="F59" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1835,7 +1856,7 @@
         <v>0.1</v>
       </c>
       <c r="F60" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1846,7 +1867,7 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>13.62</v>
+        <v>13.63</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1855,7 +1876,7 @@
         <v>0.1</v>
       </c>
       <c r="F61" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1866,7 +1887,7 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>13.62</v>
+        <v>13.64</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1875,7 +1896,7 @@
         <v>0.1</v>
       </c>
       <c r="F62" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1886,7 +1907,7 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>13.62</v>
+        <v>13.63</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1895,7 +1916,7 @@
         <v>0.1</v>
       </c>
       <c r="F63" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1906,7 +1927,7 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>13.61</v>
+        <v>13.63</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1915,7 +1936,7 @@
         <v>0.1</v>
       </c>
       <c r="F64" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1926,7 +1947,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>13.61</v>
+        <v>13.63</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -1935,7 +1956,7 @@
         <v>0.1</v>
       </c>
       <c r="F65" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1946,7 +1967,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>13.59</v>
+        <v>13.57</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1955,7 +1976,7 @@
         <v>0.1</v>
       </c>
       <c r="F66" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1966,7 +1987,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>13.22</v>
+        <v>13.27</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -1975,7 +1996,7 @@
         <v>0.1</v>
       </c>
       <c r="F67" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1995,7 +2016,7 @@
         <v>0.1</v>
       </c>
       <c r="F68" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2006,7 +2027,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>12.99</v>
+        <v>12.98</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2015,7 +2036,7 @@
         <v>0.1</v>
       </c>
       <c r="F69" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2026,7 +2047,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>12.97</v>
+        <v>12.96</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2035,7 +2056,7 @@
         <v>0.1</v>
       </c>
       <c r="F70" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2046,7 +2067,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>12.96</v>
+        <v>12.93</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2055,7 +2076,7 @@
         <v>0.1</v>
       </c>
       <c r="F71" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2066,7 +2087,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>12.94</v>
+        <v>12.91</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2075,7 +2096,7 @@
         <v>0.1</v>
       </c>
       <c r="F72" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2086,7 +2107,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>12.93</v>
+        <v>12.89</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2095,7 +2116,7 @@
         <v>0.1</v>
       </c>
       <c r="F73" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2106,7 +2127,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>12.92</v>
+        <v>12.87</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2115,7 +2136,7 @@
         <v>0.1</v>
       </c>
       <c r="F74" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2126,7 +2147,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>12.91</v>
+        <v>12.85</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2135,7 +2156,7 @@
         <v>0.1</v>
       </c>
       <c r="F75" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2146,7 +2167,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>12.88</v>
+        <v>12.82</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2155,7 +2176,7 @@
         <v>0.1</v>
       </c>
       <c r="F76" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2166,7 +2187,7 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>12.86</v>
+        <v>12.79</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2175,7 +2196,7 @@
         <v>0.1</v>
       </c>
       <c r="F77" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2186,7 +2207,7 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>12.83</v>
+        <v>12.76</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2195,7 +2216,7 @@
         <v>0.1</v>
       </c>
       <c r="F78" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2206,7 +2227,7 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>12.8</v>
+        <v>12.72</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -2215,7 +2236,7 @@
         <v>0.1</v>
       </c>
       <c r="F79" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2226,7 +2247,7 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>12.78</v>
+        <v>12.69</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2235,7 +2256,7 @@
         <v>0.1</v>
       </c>
       <c r="F80" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2246,7 +2267,7 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>12.96</v>
+        <v>12.85</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2255,7 +2276,7 @@
         <v>0.1</v>
       </c>
       <c r="F81" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2266,7 +2287,7 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>13.55</v>
+        <v>13.53</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2275,7 +2296,7 @@
         <v>0.1</v>
       </c>
       <c r="F82" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2286,7 +2307,7 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>13.59</v>
+        <v>13.57</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2295,7 +2316,147 @@
         <v>0.1</v>
       </c>
       <c r="F83" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
         <v>87</v>
+      </c>
+      <c r="C84">
+        <v>13.6</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0.1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85">
+        <v>13.62</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0.1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86">
+        <v>13.63</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0.1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87">
+        <v>13.62</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0.1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88">
+        <v>13.62</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0.1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89">
+        <v>13.62</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0.1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90">
+        <v>13.6</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0.1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/CANTEL II.xlsx
+++ b/tablas_insivumeh/CANTEL II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="96">
   <si>
     <t>Fecha</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>11/13/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:00:00 PM</t>
   </si>
   <si>
     <t>CANTEL II</t>
@@ -656,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -696,7 +699,7 @@
         <v>0.1</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -716,7 +719,7 @@
         <v>0.1</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -736,7 +739,7 @@
         <v>0.1</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -756,7 +759,7 @@
         <v>0.1</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -776,7 +779,7 @@
         <v>0.1</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -796,7 +799,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -816,7 +819,7 @@
         <v>0.1</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -836,7 +839,7 @@
         <v>0.1</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -856,7 +859,7 @@
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -876,7 +879,7 @@
         <v>0.1</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -896,7 +899,7 @@
         <v>0.1</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -916,7 +919,7 @@
         <v>0.1</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -936,7 +939,7 @@
         <v>0.1</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -956,7 +959,7 @@
         <v>0.1</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -976,7 +979,7 @@
         <v>0.1</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -996,7 +999,7 @@
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1016,7 +1019,7 @@
         <v>0.1</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1036,7 +1039,7 @@
         <v>0.1</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1056,7 +1059,7 @@
         <v>0.1</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1076,7 +1079,7 @@
         <v>0.1</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1096,7 +1099,7 @@
         <v>0.1</v>
       </c>
       <c r="F22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1116,7 +1119,7 @@
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1136,7 +1139,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1156,7 +1159,7 @@
         <v>0.1</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1176,7 +1179,7 @@
         <v>0.1</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1196,7 +1199,7 @@
         <v>0.1</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1216,7 +1219,7 @@
         <v>0.1</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1236,7 +1239,7 @@
         <v>0.1</v>
       </c>
       <c r="F29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1256,7 +1259,7 @@
         <v>0.1</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1276,7 +1279,7 @@
         <v>0.1</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1296,7 +1299,7 @@
         <v>0.1</v>
       </c>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1316,7 +1319,7 @@
         <v>0.1</v>
       </c>
       <c r="F33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1336,7 +1339,7 @@
         <v>0.1</v>
       </c>
       <c r="F34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1356,7 +1359,7 @@
         <v>0.1</v>
       </c>
       <c r="F35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1376,7 +1379,7 @@
         <v>0.1</v>
       </c>
       <c r="F36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1396,7 +1399,7 @@
         <v>0.1</v>
       </c>
       <c r="F37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1416,7 +1419,7 @@
         <v>0.1</v>
       </c>
       <c r="F38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1436,7 +1439,7 @@
         <v>0.1</v>
       </c>
       <c r="F39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1456,7 +1459,7 @@
         <v>0.1</v>
       </c>
       <c r="F40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1476,7 +1479,7 @@
         <v>0.1</v>
       </c>
       <c r="F41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1496,7 +1499,7 @@
         <v>0.1</v>
       </c>
       <c r="F42" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1516,7 +1519,7 @@
         <v>0.1</v>
       </c>
       <c r="F43" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1536,7 +1539,7 @@
         <v>0.1</v>
       </c>
       <c r="F44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1556,7 +1559,7 @@
         <v>0.1</v>
       </c>
       <c r="F45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1576,7 +1579,7 @@
         <v>0.1</v>
       </c>
       <c r="F46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1596,7 +1599,7 @@
         <v>0.1</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1616,7 +1619,7 @@
         <v>0.1</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1636,7 +1639,7 @@
         <v>0.1</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1656,7 +1659,7 @@
         <v>0.1</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1676,7 +1679,7 @@
         <v>0.1</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1696,7 +1699,7 @@
         <v>0.1</v>
       </c>
       <c r="F52" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1716,7 +1719,7 @@
         <v>0.1</v>
       </c>
       <c r="F53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1736,7 +1739,7 @@
         <v>0.1</v>
       </c>
       <c r="F54" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1756,7 +1759,7 @@
         <v>0.1</v>
       </c>
       <c r="F55" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1776,7 +1779,7 @@
         <v>0.1</v>
       </c>
       <c r="F56" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1796,7 +1799,7 @@
         <v>0.1</v>
       </c>
       <c r="F57" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1816,7 +1819,7 @@
         <v>0.1</v>
       </c>
       <c r="F58" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1836,7 +1839,7 @@
         <v>0.1</v>
       </c>
       <c r="F59" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1856,7 +1859,7 @@
         <v>0.1</v>
       </c>
       <c r="F60" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1876,7 +1879,7 @@
         <v>0.1</v>
       </c>
       <c r="F61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1896,7 +1899,7 @@
         <v>0.1</v>
       </c>
       <c r="F62" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1916,7 +1919,7 @@
         <v>0.1</v>
       </c>
       <c r="F63" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1936,7 +1939,7 @@
         <v>0.1</v>
       </c>
       <c r="F64" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1956,7 +1959,7 @@
         <v>0.1</v>
       </c>
       <c r="F65" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1976,7 +1979,7 @@
         <v>0.1</v>
       </c>
       <c r="F66" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1996,7 +1999,7 @@
         <v>0.1</v>
       </c>
       <c r="F67" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2016,7 +2019,7 @@
         <v>0.1</v>
       </c>
       <c r="F68" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2036,7 +2039,7 @@
         <v>0.1</v>
       </c>
       <c r="F69" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2056,7 +2059,7 @@
         <v>0.1</v>
       </c>
       <c r="F70" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2076,7 +2079,7 @@
         <v>0.1</v>
       </c>
       <c r="F71" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2096,7 +2099,7 @@
         <v>0.1</v>
       </c>
       <c r="F72" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2116,7 +2119,7 @@
         <v>0.1</v>
       </c>
       <c r="F73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2136,7 +2139,7 @@
         <v>0.1</v>
       </c>
       <c r="F74" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2156,7 +2159,7 @@
         <v>0.1</v>
       </c>
       <c r="F75" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2176,7 +2179,7 @@
         <v>0.1</v>
       </c>
       <c r="F76" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2196,7 +2199,7 @@
         <v>0.1</v>
       </c>
       <c r="F77" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2216,7 +2219,7 @@
         <v>0.1</v>
       </c>
       <c r="F78" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2236,7 +2239,7 @@
         <v>0.1</v>
       </c>
       <c r="F79" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2256,7 +2259,7 @@
         <v>0.1</v>
       </c>
       <c r="F80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2276,7 +2279,7 @@
         <v>0.1</v>
       </c>
       <c r="F81" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2296,7 +2299,7 @@
         <v>0.1</v>
       </c>
       <c r="F82" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2316,7 +2319,7 @@
         <v>0.1</v>
       </c>
       <c r="F83" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2336,7 +2339,7 @@
         <v>0.1</v>
       </c>
       <c r="F84" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2356,7 +2359,7 @@
         <v>0.1</v>
       </c>
       <c r="F85" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2376,7 +2379,7 @@
         <v>0.1</v>
       </c>
       <c r="F86" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2396,7 +2399,7 @@
         <v>0.1</v>
       </c>
       <c r="F87" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2416,7 +2419,7 @@
         <v>0.1</v>
       </c>
       <c r="F88" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2436,7 +2439,7 @@
         <v>0.1</v>
       </c>
       <c r="F89" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2456,7 +2459,27 @@
         <v>0.1</v>
       </c>
       <c r="F90" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
         <v>94</v>
+      </c>
+      <c r="C91">
+        <v>13.53</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0.1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/CANTEL II.xlsx
+++ b/tablas_insivumeh/CANTEL II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="97">
   <si>
     <t>Fecha</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>11/13/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 6:00:00 PM</t>
   </si>
   <si>
     <t>CANTEL II</t>
@@ -659,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,7 +702,7 @@
         <v>0.1</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -719,7 +722,7 @@
         <v>0.1</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -739,7 +742,7 @@
         <v>0.1</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -759,7 +762,7 @@
         <v>0.1</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -779,7 +782,7 @@
         <v>0.1</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -799,7 +802,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -819,7 +822,7 @@
         <v>0.1</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -839,7 +842,7 @@
         <v>0.1</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -859,7 +862,7 @@
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -879,7 +882,7 @@
         <v>0.1</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -899,7 +902,7 @@
         <v>0.1</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -919,7 +922,7 @@
         <v>0.1</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -939,7 +942,7 @@
         <v>0.1</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -959,7 +962,7 @@
         <v>0.1</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -979,7 +982,7 @@
         <v>0.1</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -999,7 +1002,7 @@
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1019,7 +1022,7 @@
         <v>0.1</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1039,7 +1042,7 @@
         <v>0.1</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1059,7 +1062,7 @@
         <v>0.1</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1079,7 +1082,7 @@
         <v>0.1</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1099,7 +1102,7 @@
         <v>0.1</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1119,7 +1122,7 @@
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1139,7 +1142,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1159,7 +1162,7 @@
         <v>0.1</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1179,7 +1182,7 @@
         <v>0.1</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1199,7 +1202,7 @@
         <v>0.1</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1219,7 +1222,7 @@
         <v>0.1</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1239,7 +1242,7 @@
         <v>0.1</v>
       </c>
       <c r="F29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1259,7 +1262,7 @@
         <v>0.1</v>
       </c>
       <c r="F30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1279,7 +1282,7 @@
         <v>0.1</v>
       </c>
       <c r="F31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1299,7 +1302,7 @@
         <v>0.1</v>
       </c>
       <c r="F32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1319,7 +1322,7 @@
         <v>0.1</v>
       </c>
       <c r="F33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1339,7 +1342,7 @@
         <v>0.1</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1359,7 +1362,7 @@
         <v>0.1</v>
       </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1379,7 +1382,7 @@
         <v>0.1</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1399,7 +1402,7 @@
         <v>0.1</v>
       </c>
       <c r="F37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1419,7 +1422,7 @@
         <v>0.1</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1439,7 +1442,7 @@
         <v>0.1</v>
       </c>
       <c r="F39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1459,7 +1462,7 @@
         <v>0.1</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1479,7 +1482,7 @@
         <v>0.1</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1499,7 +1502,7 @@
         <v>0.1</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1519,7 +1522,7 @@
         <v>0.1</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1539,7 +1542,7 @@
         <v>0.1</v>
       </c>
       <c r="F44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1559,7 +1562,7 @@
         <v>0.1</v>
       </c>
       <c r="F45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1579,7 +1582,7 @@
         <v>0.1</v>
       </c>
       <c r="F46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1599,7 +1602,7 @@
         <v>0.1</v>
       </c>
       <c r="F47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1619,7 +1622,7 @@
         <v>0.1</v>
       </c>
       <c r="F48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1639,7 +1642,7 @@
         <v>0.1</v>
       </c>
       <c r="F49" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1659,7 +1662,7 @@
         <v>0.1</v>
       </c>
       <c r="F50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1679,7 +1682,7 @@
         <v>0.1</v>
       </c>
       <c r="F51" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1699,7 +1702,7 @@
         <v>0.1</v>
       </c>
       <c r="F52" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1719,7 +1722,7 @@
         <v>0.1</v>
       </c>
       <c r="F53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1739,7 +1742,7 @@
         <v>0.1</v>
       </c>
       <c r="F54" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1759,7 +1762,7 @@
         <v>0.1</v>
       </c>
       <c r="F55" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1779,7 +1782,7 @@
         <v>0.1</v>
       </c>
       <c r="F56" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1799,7 +1802,7 @@
         <v>0.1</v>
       </c>
       <c r="F57" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1819,7 +1822,7 @@
         <v>0.1</v>
       </c>
       <c r="F58" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1839,7 +1842,7 @@
         <v>0.1</v>
       </c>
       <c r="F59" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1859,7 +1862,7 @@
         <v>0.1</v>
       </c>
       <c r="F60" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1879,7 +1882,7 @@
         <v>0.1</v>
       </c>
       <c r="F61" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1899,7 +1902,7 @@
         <v>0.1</v>
       </c>
       <c r="F62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1919,7 +1922,7 @@
         <v>0.1</v>
       </c>
       <c r="F63" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1939,7 +1942,7 @@
         <v>0.1</v>
       </c>
       <c r="F64" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1959,7 +1962,7 @@
         <v>0.1</v>
       </c>
       <c r="F65" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1979,7 +1982,7 @@
         <v>0.1</v>
       </c>
       <c r="F66" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1999,7 +2002,7 @@
         <v>0.1</v>
       </c>
       <c r="F67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2019,7 +2022,7 @@
         <v>0.1</v>
       </c>
       <c r="F68" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2039,7 +2042,7 @@
         <v>0.1</v>
       </c>
       <c r="F69" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2059,7 +2062,7 @@
         <v>0.1</v>
       </c>
       <c r="F70" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2079,7 +2082,7 @@
         <v>0.1</v>
       </c>
       <c r="F71" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2099,7 +2102,7 @@
         <v>0.1</v>
       </c>
       <c r="F72" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2119,7 +2122,7 @@
         <v>0.1</v>
       </c>
       <c r="F73" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2139,7 +2142,7 @@
         <v>0.1</v>
       </c>
       <c r="F74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2159,7 +2162,7 @@
         <v>0.1</v>
       </c>
       <c r="F75" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2179,7 +2182,7 @@
         <v>0.1</v>
       </c>
       <c r="F76" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2199,7 +2202,7 @@
         <v>0.1</v>
       </c>
       <c r="F77" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2219,7 +2222,7 @@
         <v>0.1</v>
       </c>
       <c r="F78" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2239,7 +2242,7 @@
         <v>0.1</v>
       </c>
       <c r="F79" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2259,7 +2262,7 @@
         <v>0.1</v>
       </c>
       <c r="F80" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2279,7 +2282,7 @@
         <v>0.1</v>
       </c>
       <c r="F81" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2299,7 +2302,7 @@
         <v>0.1</v>
       </c>
       <c r="F82" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2319,7 +2322,7 @@
         <v>0.1</v>
       </c>
       <c r="F83" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2339,7 +2342,7 @@
         <v>0.1</v>
       </c>
       <c r="F84" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2359,7 +2362,7 @@
         <v>0.1</v>
       </c>
       <c r="F85" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2379,7 +2382,7 @@
         <v>0.1</v>
       </c>
       <c r="F86" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2399,7 +2402,7 @@
         <v>0.1</v>
       </c>
       <c r="F87" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2419,7 +2422,7 @@
         <v>0.1</v>
       </c>
       <c r="F88" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2439,7 +2442,7 @@
         <v>0.1</v>
       </c>
       <c r="F89" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2459,7 +2462,7 @@
         <v>0.1</v>
       </c>
       <c r="F90" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2479,7 +2482,27 @@
         <v>0.1</v>
       </c>
       <c r="F91" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
         <v>95</v>
+      </c>
+      <c r="C92">
+        <v>13.06</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0.1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/CANTEL II.xlsx
+++ b/tablas_insivumeh/CANTEL II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="79">
   <si>
     <t>Fecha</t>
   </si>
@@ -31,277 +31,223 @@
     <t>Estación</t>
   </si>
   <si>
-    <t>11/10/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 6:00:00 PM</t>
+    <t>11/14/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/17/2020 12:00:00 AM</t>
   </si>
   <si>
     <t>CANTEL II</t>
@@ -662,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -693,7 +639,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>12.89</v>
+        <v>12.88</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -702,7 +648,7 @@
         <v>0.1</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -713,7 +659,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>12.88</v>
+        <v>12.86</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -722,7 +668,7 @@
         <v>0.1</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -733,7 +679,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>12.86</v>
+        <v>12.83</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -742,7 +688,7 @@
         <v>0.1</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -753,7 +699,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>12.84</v>
+        <v>12.81</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -762,7 +708,7 @@
         <v>0.1</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -773,7 +719,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>12.82</v>
+        <v>12.78</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -782,7 +728,7 @@
         <v>0.1</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -793,7 +739,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>12.79</v>
+        <v>12.74</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -802,7 +748,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -813,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>12.76</v>
+        <v>12.71</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -822,7 +768,7 @@
         <v>0.1</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -833,7 +779,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>12.85</v>
+        <v>12.79</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -842,7 +788,7 @@
         <v>0.1</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -853,7 +799,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>13.39</v>
+        <v>13.46</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -862,7 +808,7 @@
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -873,7 +819,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>13.55</v>
+        <v>13.57</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -882,7 +828,7 @@
         <v>0.1</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -902,7 +848,7 @@
         <v>0.1</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -922,7 +868,7 @@
         <v>0.1</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -933,7 +879,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>13.63</v>
+        <v>13.62</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -942,7 +888,7 @@
         <v>0.1</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -962,7 +908,7 @@
         <v>0.1</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -973,7 +919,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -982,7 +928,7 @@
         <v>0.1</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -993,7 +939,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1002,7 +948,7 @@
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1013,7 +959,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>13.56</v>
+        <v>13.58</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1022,7 +968,7 @@
         <v>0.1</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1033,7 +979,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>13.51</v>
+        <v>13.42</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1042,7 +988,7 @@
         <v>0.1</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1053,7 +999,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>13.06</v>
+        <v>13.03</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1062,7 +1008,7 @@
         <v>0.1</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1073,7 +1019,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>12.98</v>
+        <v>12.99</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1082,7 +1028,7 @@
         <v>0.1</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1093,7 +1039,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>12.96</v>
+        <v>12.97</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1102,7 +1048,7 @@
         <v>0.1</v>
       </c>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1113,7 +1059,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>12.94</v>
+        <v>12.95</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1122,7 +1068,7 @@
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1142,7 +1088,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1162,7 +1108,7 @@
         <v>0.1</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1182,7 +1128,7 @@
         <v>0.1</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1193,7 +1139,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>12.9</v>
+        <v>12.89</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1202,7 +1148,7 @@
         <v>0.1</v>
       </c>
       <c r="F27" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1222,7 +1168,7 @@
         <v>0.1</v>
       </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1242,7 +1188,7 @@
         <v>0.1</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1262,7 +1208,7 @@
         <v>0.1</v>
       </c>
       <c r="F30" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1273,7 +1219,7 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>12.78</v>
+        <v>12.79</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1282,7 +1228,7 @@
         <v>0.1</v>
       </c>
       <c r="F31" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1302,7 +1248,7 @@
         <v>0.1</v>
       </c>
       <c r="F32" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1313,7 +1259,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>12.79</v>
+        <v>12.77</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1322,7 +1268,7 @@
         <v>0.1</v>
       </c>
       <c r="F33" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1333,7 +1279,7 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>13.22</v>
+        <v>13.12</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1342,7 +1288,7 @@
         <v>0.1</v>
       </c>
       <c r="F34" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1353,7 +1299,7 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>13.53</v>
+        <v>13.47</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1362,7 +1308,7 @@
         <v>0.1</v>
       </c>
       <c r="F35" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1373,7 +1319,7 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>13.59</v>
+        <v>13.57</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1382,7 +1328,7 @@
         <v>0.1</v>
       </c>
       <c r="F36" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1402,7 +1348,7 @@
         <v>0.1</v>
       </c>
       <c r="F37" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1422,7 +1368,7 @@
         <v>0.1</v>
       </c>
       <c r="F38" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1442,7 +1388,7 @@
         <v>0.1</v>
       </c>
       <c r="F39" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1462,7 +1408,7 @@
         <v>0.1</v>
       </c>
       <c r="F40" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1482,7 +1428,7 @@
         <v>0.1</v>
       </c>
       <c r="F41" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1493,7 +1439,7 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>13.61</v>
+        <v>13.55</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1502,7 +1448,7 @@
         <v>0.1</v>
       </c>
       <c r="F42" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1513,16 +1459,16 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>13.57</v>
+        <v>13.43</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E43">
         <v>0.1</v>
       </c>
       <c r="F43" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1533,7 +1479,7 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>13.08</v>
+        <v>13.09</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1542,7 +1488,7 @@
         <v>0.1</v>
       </c>
       <c r="F44" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1553,7 +1499,7 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>13</v>
+        <v>12.99</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1562,7 +1508,7 @@
         <v>0.1</v>
       </c>
       <c r="F45" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1582,7 +1528,7 @@
         <v>0.1</v>
       </c>
       <c r="F46" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1593,7 +1539,7 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>12.95</v>
+        <v>12.94</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1602,7 +1548,7 @@
         <v>0.1</v>
       </c>
       <c r="F47" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1613,7 +1559,7 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>12.93</v>
+        <v>12.92</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1622,7 +1568,7 @@
         <v>0.1</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1633,7 +1579,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>12.92</v>
+        <v>12.9</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1642,7 +1588,7 @@
         <v>0.1</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1653,7 +1599,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>12.91</v>
+        <v>12.89</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1662,7 +1608,7 @@
         <v>0.1</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1673,7 +1619,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>12.89</v>
+        <v>12.87</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1682,7 +1628,7 @@
         <v>0.1</v>
       </c>
       <c r="F51" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1693,7 +1639,7 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>12.87</v>
+        <v>12.84</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1702,7 +1648,7 @@
         <v>0.1</v>
       </c>
       <c r="F52" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1713,7 +1659,7 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>12.84</v>
+        <v>12.81</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1722,7 +1668,7 @@
         <v>0.1</v>
       </c>
       <c r="F53" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1733,7 +1679,7 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>12.82</v>
+        <v>12.79</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1742,7 +1688,7 @@
         <v>0.1</v>
       </c>
       <c r="F54" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1753,7 +1699,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>12.78</v>
+        <v>12.75</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1762,7 +1708,7 @@
         <v>0.1</v>
       </c>
       <c r="F55" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1773,7 +1719,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>12.74</v>
+        <v>12.72</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1782,7 +1728,7 @@
         <v>0.1</v>
       </c>
       <c r="F56" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1793,7 +1739,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>12.85</v>
+        <v>12.79</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1802,7 +1748,7 @@
         <v>0.1</v>
       </c>
       <c r="F57" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1813,7 +1759,7 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>13.54</v>
+        <v>13.28</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1822,7 +1768,7 @@
         <v>0.1</v>
       </c>
       <c r="F58" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1833,7 +1779,7 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>13.58</v>
+        <v>13.57</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1842,7 +1788,7 @@
         <v>0.1</v>
       </c>
       <c r="F59" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1862,7 +1808,7 @@
         <v>0.1</v>
       </c>
       <c r="F60" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1873,7 +1819,7 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>13.63</v>
+        <v>13.62</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1882,7 +1828,7 @@
         <v>0.1</v>
       </c>
       <c r="F61" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1893,7 +1839,7 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>13.64</v>
+        <v>13.63</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1902,7 +1848,7 @@
         <v>0.1</v>
       </c>
       <c r="F62" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1913,7 +1859,7 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>13.63</v>
+        <v>13.62</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1922,7 +1868,7 @@
         <v>0.1</v>
       </c>
       <c r="F63" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1933,7 +1879,7 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>13.63</v>
+        <v>13.62</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1942,7 +1888,7 @@
         <v>0.1</v>
       </c>
       <c r="F64" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1953,7 +1899,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>13.63</v>
+        <v>13.61</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -1962,7 +1908,7 @@
         <v>0.1</v>
       </c>
       <c r="F65" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1973,7 +1919,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>13.57</v>
+        <v>13.6</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1982,7 +1928,7 @@
         <v>0.1</v>
       </c>
       <c r="F66" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1993,7 +1939,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>13.27</v>
+        <v>13.57</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2002,7 +1948,7 @@
         <v>0.1</v>
       </c>
       <c r="F67" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2013,7 +1959,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>13.03</v>
+        <v>13.1</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2022,7 +1968,7 @@
         <v>0.1</v>
       </c>
       <c r="F68" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2033,7 +1979,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>12.98</v>
+        <v>13</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2042,7 +1988,7 @@
         <v>0.1</v>
       </c>
       <c r="F69" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2053,7 +1999,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>12.96</v>
+        <v>12.98</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2062,7 +2008,7 @@
         <v>0.1</v>
       </c>
       <c r="F70" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2073,7 +2019,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>12.93</v>
+        <v>12.96</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2082,7 +2028,7 @@
         <v>0.1</v>
       </c>
       <c r="F71" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2093,7 +2039,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>12.91</v>
+        <v>12.94</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2102,7 +2048,7 @@
         <v>0.1</v>
       </c>
       <c r="F72" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2113,7 +2059,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>12.89</v>
+        <v>12.93</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2122,7 +2068,7 @@
         <v>0.1</v>
       </c>
       <c r="F73" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2133,7 +2079,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>12.87</v>
+        <v>12.92</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2142,367 +2088,7 @@
         <v>0.1</v>
       </c>
       <c r="F74" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75">
-        <v>12.85</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0.1</v>
-      </c>
-      <c r="F75" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76">
-        <v>12.82</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0.1</v>
-      </c>
-      <c r="F76" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77">
-        <v>12.79</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0.1</v>
-      </c>
-      <c r="F77" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>81</v>
-      </c>
-      <c r="C78">
-        <v>12.76</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0.1</v>
-      </c>
-      <c r="F78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>82</v>
-      </c>
-      <c r="C79">
-        <v>12.72</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0.1</v>
-      </c>
-      <c r="F79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>83</v>
-      </c>
-      <c r="C80">
-        <v>12.69</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0.1</v>
-      </c>
-      <c r="F80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>84</v>
-      </c>
-      <c r="C81">
-        <v>12.85</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0.1</v>
-      </c>
-      <c r="F81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>85</v>
-      </c>
-      <c r="C82">
-        <v>13.53</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0.1</v>
-      </c>
-      <c r="F82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83">
-        <v>13.57</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0.1</v>
-      </c>
-      <c r="F83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>87</v>
-      </c>
-      <c r="C84">
-        <v>13.6</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0.1</v>
-      </c>
-      <c r="F84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85">
-        <v>13.62</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0.1</v>
-      </c>
-      <c r="F85" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>89</v>
-      </c>
-      <c r="C86">
-        <v>13.63</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0.1</v>
-      </c>
-      <c r="F86" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>90</v>
-      </c>
-      <c r="C87">
-        <v>13.62</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0.1</v>
-      </c>
-      <c r="F87" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>91</v>
-      </c>
-      <c r="C88">
-        <v>13.62</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0.1</v>
-      </c>
-      <c r="F88" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>92</v>
-      </c>
-      <c r="C89">
-        <v>13.62</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0.1</v>
-      </c>
-      <c r="F89" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>93</v>
-      </c>
-      <c r="C90">
-        <v>13.6</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0.1</v>
-      </c>
-      <c r="F90" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>94</v>
-      </c>
-      <c r="C91">
-        <v>13.53</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0.1</v>
-      </c>
-      <c r="F91" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>95</v>
-      </c>
-      <c r="C92">
-        <v>13.06</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0.1</v>
-      </c>
-      <c r="F92" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/CANTEL II.xlsx
+++ b/tablas_insivumeh/CANTEL II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="81">
   <si>
     <t>Fecha</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>11/17/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:00:00 AM</t>
   </si>
   <si>
     <t>CANTEL II</t>
@@ -608,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,7 +654,7 @@
         <v>0.1</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -668,7 +674,7 @@
         <v>0.1</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -688,7 +694,7 @@
         <v>0.1</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -708,7 +714,7 @@
         <v>0.1</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -728,7 +734,7 @@
         <v>0.1</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -748,7 +754,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -768,7 +774,7 @@
         <v>0.1</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -788,7 +794,7 @@
         <v>0.1</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -808,7 +814,7 @@
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -828,7 +834,7 @@
         <v>0.1</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -848,7 +854,7 @@
         <v>0.1</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -868,7 +874,7 @@
         <v>0.1</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -888,7 +894,7 @@
         <v>0.1</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -908,7 +914,7 @@
         <v>0.1</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -928,7 +934,7 @@
         <v>0.1</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -948,7 +954,7 @@
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -968,7 +974,7 @@
         <v>0.1</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -988,7 +994,7 @@
         <v>0.1</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1008,7 +1014,7 @@
         <v>0.1</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1028,7 +1034,7 @@
         <v>0.1</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1048,7 +1054,7 @@
         <v>0.1</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1068,7 +1074,7 @@
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1088,7 +1094,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1108,7 +1114,7 @@
         <v>0.1</v>
       </c>
       <c r="F25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1128,7 +1134,7 @@
         <v>0.1</v>
       </c>
       <c r="F26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1148,7 +1154,7 @@
         <v>0.1</v>
       </c>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1168,7 +1174,7 @@
         <v>0.1</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1188,7 +1194,7 @@
         <v>0.1</v>
       </c>
       <c r="F29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1208,7 +1214,7 @@
         <v>0.1</v>
       </c>
       <c r="F30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1228,7 +1234,7 @@
         <v>0.1</v>
       </c>
       <c r="F31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1248,7 +1254,7 @@
         <v>0.1</v>
       </c>
       <c r="F32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1268,7 +1274,7 @@
         <v>0.1</v>
       </c>
       <c r="F33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1288,7 +1294,7 @@
         <v>0.1</v>
       </c>
       <c r="F34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1308,7 +1314,7 @@
         <v>0.1</v>
       </c>
       <c r="F35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1328,7 +1334,7 @@
         <v>0.1</v>
       </c>
       <c r="F36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1348,7 +1354,7 @@
         <v>0.1</v>
       </c>
       <c r="F37" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1368,7 +1374,7 @@
         <v>0.1</v>
       </c>
       <c r="F38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1388,7 +1394,7 @@
         <v>0.1</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1408,7 +1414,7 @@
         <v>0.1</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1428,7 +1434,7 @@
         <v>0.1</v>
       </c>
       <c r="F41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1448,7 +1454,7 @@
         <v>0.1</v>
       </c>
       <c r="F42" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1468,7 +1474,7 @@
         <v>0.1</v>
       </c>
       <c r="F43" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1488,7 +1494,7 @@
         <v>0.1</v>
       </c>
       <c r="F44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1508,7 +1514,7 @@
         <v>0.1</v>
       </c>
       <c r="F45" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1528,7 +1534,7 @@
         <v>0.1</v>
       </c>
       <c r="F46" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1548,7 +1554,7 @@
         <v>0.1</v>
       </c>
       <c r="F47" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1568,7 +1574,7 @@
         <v>0.1</v>
       </c>
       <c r="F48" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1588,7 +1594,7 @@
         <v>0.1</v>
       </c>
       <c r="F49" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1608,7 +1614,7 @@
         <v>0.1</v>
       </c>
       <c r="F50" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1628,7 +1634,7 @@
         <v>0.1</v>
       </c>
       <c r="F51" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1648,7 +1654,7 @@
         <v>0.1</v>
       </c>
       <c r="F52" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1668,7 +1674,7 @@
         <v>0.1</v>
       </c>
       <c r="F53" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1688,7 +1694,7 @@
         <v>0.1</v>
       </c>
       <c r="F54" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1708,7 +1714,7 @@
         <v>0.1</v>
       </c>
       <c r="F55" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1728,7 +1734,7 @@
         <v>0.1</v>
       </c>
       <c r="F56" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1748,7 +1754,7 @@
         <v>0.1</v>
       </c>
       <c r="F57" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1768,7 +1774,7 @@
         <v>0.1</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1788,7 +1794,7 @@
         <v>0.1</v>
       </c>
       <c r="F59" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1808,7 +1814,7 @@
         <v>0.1</v>
       </c>
       <c r="F60" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1828,7 +1834,7 @@
         <v>0.1</v>
       </c>
       <c r="F61" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1848,7 +1854,7 @@
         <v>0.1</v>
       </c>
       <c r="F62" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1868,7 +1874,7 @@
         <v>0.1</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1888,7 +1894,7 @@
         <v>0.1</v>
       </c>
       <c r="F64" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1908,7 +1914,7 @@
         <v>0.1</v>
       </c>
       <c r="F65" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1928,7 +1934,7 @@
         <v>0.1</v>
       </c>
       <c r="F66" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1948,7 +1954,7 @@
         <v>0.1</v>
       </c>
       <c r="F67" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1968,7 +1974,7 @@
         <v>0.1</v>
       </c>
       <c r="F68" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1988,7 +1994,7 @@
         <v>0.1</v>
       </c>
       <c r="F69" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2008,7 +2014,7 @@
         <v>0.1</v>
       </c>
       <c r="F70" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2028,7 +2034,7 @@
         <v>0.1</v>
       </c>
       <c r="F71" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2048,7 +2054,7 @@
         <v>0.1</v>
       </c>
       <c r="F72" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2068,7 +2074,7 @@
         <v>0.1</v>
       </c>
       <c r="F73" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2088,7 +2094,47 @@
         <v>0.1</v>
       </c>
       <c r="F74" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
         <v>78</v>
+      </c>
+      <c r="C75">
+        <v>12.9</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0.1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76">
+        <v>12.87</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0.1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/CANTEL II.xlsx
+++ b/tablas_insivumeh/CANTEL II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
   <si>
     <t>Fecha</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>11/17/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:00:00 AM</t>
   </si>
   <si>
     <t>CANTEL II</t>
@@ -614,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -654,7 +657,7 @@
         <v>0.1</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -674,7 +677,7 @@
         <v>0.1</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -694,7 +697,7 @@
         <v>0.1</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -714,7 +717,7 @@
         <v>0.1</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -734,7 +737,7 @@
         <v>0.1</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -754,7 +757,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -774,7 +777,7 @@
         <v>0.1</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -794,7 +797,7 @@
         <v>0.1</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -814,7 +817,7 @@
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -834,7 +837,7 @@
         <v>0.1</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -854,7 +857,7 @@
         <v>0.1</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -874,7 +877,7 @@
         <v>0.1</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -894,7 +897,7 @@
         <v>0.1</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -914,7 +917,7 @@
         <v>0.1</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -934,7 +937,7 @@
         <v>0.1</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -954,7 +957,7 @@
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -974,7 +977,7 @@
         <v>0.1</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -994,7 +997,7 @@
         <v>0.1</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1014,7 +1017,7 @@
         <v>0.1</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1034,7 +1037,7 @@
         <v>0.1</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1054,7 +1057,7 @@
         <v>0.1</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1074,7 +1077,7 @@
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1094,7 +1097,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1114,7 +1117,7 @@
         <v>0.1</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1134,7 +1137,7 @@
         <v>0.1</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1154,7 +1157,7 @@
         <v>0.1</v>
       </c>
       <c r="F27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1174,7 +1177,7 @@
         <v>0.1</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1194,7 +1197,7 @@
         <v>0.1</v>
       </c>
       <c r="F29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1214,7 +1217,7 @@
         <v>0.1</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1234,7 +1237,7 @@
         <v>0.1</v>
       </c>
       <c r="F31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1254,7 +1257,7 @@
         <v>0.1</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1274,7 +1277,7 @@
         <v>0.1</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1294,7 +1297,7 @@
         <v>0.1</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1314,7 +1317,7 @@
         <v>0.1</v>
       </c>
       <c r="F35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1334,7 +1337,7 @@
         <v>0.1</v>
       </c>
       <c r="F36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1354,7 +1357,7 @@
         <v>0.1</v>
       </c>
       <c r="F37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1374,7 +1377,7 @@
         <v>0.1</v>
       </c>
       <c r="F38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1394,7 +1397,7 @@
         <v>0.1</v>
       </c>
       <c r="F39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1414,7 +1417,7 @@
         <v>0.1</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1434,7 +1437,7 @@
         <v>0.1</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1454,7 +1457,7 @@
         <v>0.1</v>
       </c>
       <c r="F42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1474,7 +1477,7 @@
         <v>0.1</v>
       </c>
       <c r="F43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1494,7 +1497,7 @@
         <v>0.1</v>
       </c>
       <c r="F44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1514,7 +1517,7 @@
         <v>0.1</v>
       </c>
       <c r="F45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1534,7 +1537,7 @@
         <v>0.1</v>
       </c>
       <c r="F46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1554,7 +1557,7 @@
         <v>0.1</v>
       </c>
       <c r="F47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1574,7 +1577,7 @@
         <v>0.1</v>
       </c>
       <c r="F48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1594,7 +1597,7 @@
         <v>0.1</v>
       </c>
       <c r="F49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1614,7 +1617,7 @@
         <v>0.1</v>
       </c>
       <c r="F50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1634,7 +1637,7 @@
         <v>0.1</v>
       </c>
       <c r="F51" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1654,7 +1657,7 @@
         <v>0.1</v>
       </c>
       <c r="F52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1674,7 +1677,7 @@
         <v>0.1</v>
       </c>
       <c r="F53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1694,7 +1697,7 @@
         <v>0.1</v>
       </c>
       <c r="F54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1714,7 +1717,7 @@
         <v>0.1</v>
       </c>
       <c r="F55" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1734,7 +1737,7 @@
         <v>0.1</v>
       </c>
       <c r="F56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1754,7 +1757,7 @@
         <v>0.1</v>
       </c>
       <c r="F57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1774,7 +1777,7 @@
         <v>0.1</v>
       </c>
       <c r="F58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1794,7 +1797,7 @@
         <v>0.1</v>
       </c>
       <c r="F59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1814,7 +1817,7 @@
         <v>0.1</v>
       </c>
       <c r="F60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1834,7 +1837,7 @@
         <v>0.1</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1854,7 +1857,7 @@
         <v>0.1</v>
       </c>
       <c r="F62" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1874,7 +1877,7 @@
         <v>0.1</v>
       </c>
       <c r="F63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1894,7 +1897,7 @@
         <v>0.1</v>
       </c>
       <c r="F64" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1914,7 +1917,7 @@
         <v>0.1</v>
       </c>
       <c r="F65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1934,7 +1937,7 @@
         <v>0.1</v>
       </c>
       <c r="F66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1954,7 +1957,7 @@
         <v>0.1</v>
       </c>
       <c r="F67" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1974,7 +1977,7 @@
         <v>0.1</v>
       </c>
       <c r="F68" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1994,7 +1997,7 @@
         <v>0.1</v>
       </c>
       <c r="F69" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2014,7 +2017,7 @@
         <v>0.1</v>
       </c>
       <c r="F70" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2034,7 +2037,7 @@
         <v>0.1</v>
       </c>
       <c r="F71" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2054,7 +2057,7 @@
         <v>0.1</v>
       </c>
       <c r="F72" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2074,7 +2077,7 @@
         <v>0.1</v>
       </c>
       <c r="F73" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2094,7 +2097,7 @@
         <v>0.1</v>
       </c>
       <c r="F74" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2114,7 +2117,7 @@
         <v>0.1</v>
       </c>
       <c r="F75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2134,7 +2137,27 @@
         <v>0.1</v>
       </c>
       <c r="F76" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
         <v>80</v>
+      </c>
+      <c r="C77">
+        <v>12.85</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0.1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/CANTEL II.xlsx
+++ b/tablas_insivumeh/CANTEL II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="84">
   <si>
     <t>Fecha</t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t>11/17/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:00:00 AM</t>
   </si>
   <si>
     <t>CANTEL II</t>
@@ -617,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,7 +663,7 @@
         <v>0.1</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -677,7 +683,7 @@
         <v>0.1</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -697,7 +703,7 @@
         <v>0.1</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -717,7 +723,7 @@
         <v>0.1</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -737,7 +743,7 @@
         <v>0.1</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -757,7 +763,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -777,7 +783,7 @@
         <v>0.1</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -797,7 +803,7 @@
         <v>0.1</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -817,7 +823,7 @@
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -837,7 +843,7 @@
         <v>0.1</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -857,7 +863,7 @@
         <v>0.1</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -877,7 +883,7 @@
         <v>0.1</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -897,7 +903,7 @@
         <v>0.1</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -917,7 +923,7 @@
         <v>0.1</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -937,7 +943,7 @@
         <v>0.1</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -957,7 +963,7 @@
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -977,7 +983,7 @@
         <v>0.1</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -997,7 +1003,7 @@
         <v>0.1</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1017,7 +1023,7 @@
         <v>0.1</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1037,7 +1043,7 @@
         <v>0.1</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1057,7 +1063,7 @@
         <v>0.1</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1077,7 +1083,7 @@
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1097,7 +1103,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1117,7 +1123,7 @@
         <v>0.1</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1137,7 +1143,7 @@
         <v>0.1</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1157,7 +1163,7 @@
         <v>0.1</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1177,7 +1183,7 @@
         <v>0.1</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1197,7 +1203,7 @@
         <v>0.1</v>
       </c>
       <c r="F29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1217,7 +1223,7 @@
         <v>0.1</v>
       </c>
       <c r="F30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1237,7 +1243,7 @@
         <v>0.1</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1257,7 +1263,7 @@
         <v>0.1</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1277,7 +1283,7 @@
         <v>0.1</v>
       </c>
       <c r="F33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1297,7 +1303,7 @@
         <v>0.1</v>
       </c>
       <c r="F34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1317,7 +1323,7 @@
         <v>0.1</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1337,7 +1343,7 @@
         <v>0.1</v>
       </c>
       <c r="F36" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1357,7 +1363,7 @@
         <v>0.1</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1377,7 +1383,7 @@
         <v>0.1</v>
       </c>
       <c r="F38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1397,7 +1403,7 @@
         <v>0.1</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1417,7 +1423,7 @@
         <v>0.1</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1437,7 +1443,7 @@
         <v>0.1</v>
       </c>
       <c r="F41" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1457,7 +1463,7 @@
         <v>0.1</v>
       </c>
       <c r="F42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1477,7 +1483,7 @@
         <v>0.1</v>
       </c>
       <c r="F43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1497,7 +1503,7 @@
         <v>0.1</v>
       </c>
       <c r="F44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1517,7 +1523,7 @@
         <v>0.1</v>
       </c>
       <c r="F45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1537,7 +1543,7 @@
         <v>0.1</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1557,7 +1563,7 @@
         <v>0.1</v>
       </c>
       <c r="F47" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1577,7 +1583,7 @@
         <v>0.1</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1597,7 +1603,7 @@
         <v>0.1</v>
       </c>
       <c r="F49" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1617,7 +1623,7 @@
         <v>0.1</v>
       </c>
       <c r="F50" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1637,7 +1643,7 @@
         <v>0.1</v>
       </c>
       <c r="F51" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1657,7 +1663,7 @@
         <v>0.1</v>
       </c>
       <c r="F52" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1677,7 +1683,7 @@
         <v>0.1</v>
       </c>
       <c r="F53" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1697,7 +1703,7 @@
         <v>0.1</v>
       </c>
       <c r="F54" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1717,7 +1723,7 @@
         <v>0.1</v>
       </c>
       <c r="F55" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1737,7 +1743,7 @@
         <v>0.1</v>
       </c>
       <c r="F56" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1757,7 +1763,7 @@
         <v>0.1</v>
       </c>
       <c r="F57" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1777,7 +1783,7 @@
         <v>0.1</v>
       </c>
       <c r="F58" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1797,7 +1803,7 @@
         <v>0.1</v>
       </c>
       <c r="F59" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1817,7 +1823,7 @@
         <v>0.1</v>
       </c>
       <c r="F60" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1837,7 +1843,7 @@
         <v>0.1</v>
       </c>
       <c r="F61" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1857,7 +1863,7 @@
         <v>0.1</v>
       </c>
       <c r="F62" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1877,7 +1883,7 @@
         <v>0.1</v>
       </c>
       <c r="F63" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1897,7 +1903,7 @@
         <v>0.1</v>
       </c>
       <c r="F64" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1917,7 +1923,7 @@
         <v>0.1</v>
       </c>
       <c r="F65" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1937,7 +1943,7 @@
         <v>0.1</v>
       </c>
       <c r="F66" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1957,7 +1963,7 @@
         <v>0.1</v>
       </c>
       <c r="F67" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1977,7 +1983,7 @@
         <v>0.1</v>
       </c>
       <c r="F68" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1997,7 +2003,7 @@
         <v>0.1</v>
       </c>
       <c r="F69" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2017,7 +2023,7 @@
         <v>0.1</v>
       </c>
       <c r="F70" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2037,7 +2043,7 @@
         <v>0.1</v>
       </c>
       <c r="F71" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2057,7 +2063,7 @@
         <v>0.1</v>
       </c>
       <c r="F72" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2077,7 +2083,7 @@
         <v>0.1</v>
       </c>
       <c r="F73" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2097,7 +2103,7 @@
         <v>0.1</v>
       </c>
       <c r="F74" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2117,7 +2123,7 @@
         <v>0.1</v>
       </c>
       <c r="F75" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2137,7 +2143,7 @@
         <v>0.1</v>
       </c>
       <c r="F76" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2157,7 +2163,47 @@
         <v>0.1</v>
       </c>
       <c r="F77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
         <v>81</v>
+      </c>
+      <c r="C78">
+        <v>12.83</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0.1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79">
+        <v>12.79</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0.1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/CANTEL II.xlsx
+++ b/tablas_insivumeh/CANTEL II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="85">
   <si>
     <t>Fecha</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>11/17/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:00:00 AM</t>
   </si>
   <si>
     <t>CANTEL II</t>
@@ -623,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,7 +666,7 @@
         <v>0.1</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -683,7 +686,7 @@
         <v>0.1</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -703,7 +706,7 @@
         <v>0.1</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -723,7 +726,7 @@
         <v>0.1</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -743,7 +746,7 @@
         <v>0.1</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -763,7 +766,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -783,7 +786,7 @@
         <v>0.1</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -803,7 +806,7 @@
         <v>0.1</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -823,7 +826,7 @@
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -843,7 +846,7 @@
         <v>0.1</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -863,7 +866,7 @@
         <v>0.1</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -883,7 +886,7 @@
         <v>0.1</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -903,7 +906,7 @@
         <v>0.1</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -923,7 +926,7 @@
         <v>0.1</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -943,7 +946,7 @@
         <v>0.1</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -963,7 +966,7 @@
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -983,7 +986,7 @@
         <v>0.1</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1003,7 +1006,7 @@
         <v>0.1</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1023,7 +1026,7 @@
         <v>0.1</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1043,7 +1046,7 @@
         <v>0.1</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1063,7 +1066,7 @@
         <v>0.1</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1083,7 +1086,7 @@
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1103,7 +1106,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1123,7 +1126,7 @@
         <v>0.1</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1143,7 +1146,7 @@
         <v>0.1</v>
       </c>
       <c r="F26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1163,7 +1166,7 @@
         <v>0.1</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1183,7 +1186,7 @@
         <v>0.1</v>
       </c>
       <c r="F28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1203,7 +1206,7 @@
         <v>0.1</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1223,7 +1226,7 @@
         <v>0.1</v>
       </c>
       <c r="F30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1243,7 +1246,7 @@
         <v>0.1</v>
       </c>
       <c r="F31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1263,7 +1266,7 @@
         <v>0.1</v>
       </c>
       <c r="F32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1283,7 +1286,7 @@
         <v>0.1</v>
       </c>
       <c r="F33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1303,7 +1306,7 @@
         <v>0.1</v>
       </c>
       <c r="F34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1323,7 +1326,7 @@
         <v>0.1</v>
       </c>
       <c r="F35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1343,7 +1346,7 @@
         <v>0.1</v>
       </c>
       <c r="F36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1363,7 +1366,7 @@
         <v>0.1</v>
       </c>
       <c r="F37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1383,7 +1386,7 @@
         <v>0.1</v>
       </c>
       <c r="F38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1403,7 +1406,7 @@
         <v>0.1</v>
       </c>
       <c r="F39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1423,7 +1426,7 @@
         <v>0.1</v>
       </c>
       <c r="F40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1443,7 +1446,7 @@
         <v>0.1</v>
       </c>
       <c r="F41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1463,7 +1466,7 @@
         <v>0.1</v>
       </c>
       <c r="F42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1483,7 +1486,7 @@
         <v>0.1</v>
       </c>
       <c r="F43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1503,7 +1506,7 @@
         <v>0.1</v>
       </c>
       <c r="F44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1523,7 +1526,7 @@
         <v>0.1</v>
       </c>
       <c r="F45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1543,7 +1546,7 @@
         <v>0.1</v>
       </c>
       <c r="F46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1563,7 +1566,7 @@
         <v>0.1</v>
       </c>
       <c r="F47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1583,7 +1586,7 @@
         <v>0.1</v>
       </c>
       <c r="F48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1603,7 +1606,7 @@
         <v>0.1</v>
       </c>
       <c r="F49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1623,7 +1626,7 @@
         <v>0.1</v>
       </c>
       <c r="F50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1643,7 +1646,7 @@
         <v>0.1</v>
       </c>
       <c r="F51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1663,7 +1666,7 @@
         <v>0.1</v>
       </c>
       <c r="F52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1683,7 +1686,7 @@
         <v>0.1</v>
       </c>
       <c r="F53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1703,7 +1706,7 @@
         <v>0.1</v>
       </c>
       <c r="F54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1723,7 +1726,7 @@
         <v>0.1</v>
       </c>
       <c r="F55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1743,7 +1746,7 @@
         <v>0.1</v>
       </c>
       <c r="F56" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1763,7 +1766,7 @@
         <v>0.1</v>
       </c>
       <c r="F57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1783,7 +1786,7 @@
         <v>0.1</v>
       </c>
       <c r="F58" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1803,7 +1806,7 @@
         <v>0.1</v>
       </c>
       <c r="F59" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1823,7 +1826,7 @@
         <v>0.1</v>
       </c>
       <c r="F60" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1843,7 +1846,7 @@
         <v>0.1</v>
       </c>
       <c r="F61" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1863,7 +1866,7 @@
         <v>0.1</v>
       </c>
       <c r="F62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1883,7 +1886,7 @@
         <v>0.1</v>
       </c>
       <c r="F63" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1903,7 +1906,7 @@
         <v>0.1</v>
       </c>
       <c r="F64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1923,7 +1926,7 @@
         <v>0.1</v>
       </c>
       <c r="F65" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1943,7 +1946,7 @@
         <v>0.1</v>
       </c>
       <c r="F66" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1963,7 +1966,7 @@
         <v>0.1</v>
       </c>
       <c r="F67" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1983,7 +1986,7 @@
         <v>0.1</v>
       </c>
       <c r="F68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2003,7 +2006,7 @@
         <v>0.1</v>
       </c>
       <c r="F69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2023,7 +2026,7 @@
         <v>0.1</v>
       </c>
       <c r="F70" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2043,7 +2046,7 @@
         <v>0.1</v>
       </c>
       <c r="F71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2063,7 +2066,7 @@
         <v>0.1</v>
       </c>
       <c r="F72" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2083,7 +2086,7 @@
         <v>0.1</v>
       </c>
       <c r="F73" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2103,7 +2106,7 @@
         <v>0.1</v>
       </c>
       <c r="F74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2123,7 +2126,7 @@
         <v>0.1</v>
       </c>
       <c r="F75" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2143,7 +2146,7 @@
         <v>0.1</v>
       </c>
       <c r="F76" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2163,7 +2166,7 @@
         <v>0.1</v>
       </c>
       <c r="F77" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2183,7 +2186,7 @@
         <v>0.1</v>
       </c>
       <c r="F78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2203,7 +2206,27 @@
         <v>0.1</v>
       </c>
       <c r="F79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
         <v>83</v>
+      </c>
+      <c r="C80">
+        <v>12.75</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0.1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/CANTEL II.xlsx
+++ b/tablas_insivumeh/CANTEL II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="87">
   <si>
     <t>Fecha</t>
   </si>
@@ -266,6 +266,12 @@
   </si>
   <si>
     <t>11/17/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:00:00 AM</t>
   </si>
   <si>
     <t>CANTEL II</t>
@@ -626,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,7 +672,7 @@
         <v>0.1</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -686,7 +692,7 @@
         <v>0.1</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -706,7 +712,7 @@
         <v>0.1</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -726,7 +732,7 @@
         <v>0.1</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -746,7 +752,7 @@
         <v>0.1</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -766,7 +772,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -786,7 +792,7 @@
         <v>0.1</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -806,7 +812,7 @@
         <v>0.1</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -826,7 +832,7 @@
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -846,7 +852,7 @@
         <v>0.1</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -866,7 +872,7 @@
         <v>0.1</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -886,7 +892,7 @@
         <v>0.1</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -906,7 +912,7 @@
         <v>0.1</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -926,7 +932,7 @@
         <v>0.1</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -946,7 +952,7 @@
         <v>0.1</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -966,7 +972,7 @@
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -986,7 +992,7 @@
         <v>0.1</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1006,7 +1012,7 @@
         <v>0.1</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1026,7 +1032,7 @@
         <v>0.1</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1046,7 +1052,7 @@
         <v>0.1</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1066,7 +1072,7 @@
         <v>0.1</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1086,7 +1092,7 @@
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1106,7 +1112,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1126,7 +1132,7 @@
         <v>0.1</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1146,7 +1152,7 @@
         <v>0.1</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1166,7 +1172,7 @@
         <v>0.1</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1186,7 +1192,7 @@
         <v>0.1</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1206,7 +1212,7 @@
         <v>0.1</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1226,7 +1232,7 @@
         <v>0.1</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1246,7 +1252,7 @@
         <v>0.1</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1266,7 +1272,7 @@
         <v>0.1</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1286,7 +1292,7 @@
         <v>0.1</v>
       </c>
       <c r="F33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1306,7 +1312,7 @@
         <v>0.1</v>
       </c>
       <c r="F34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1326,7 +1332,7 @@
         <v>0.1</v>
       </c>
       <c r="F35" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1346,7 +1352,7 @@
         <v>0.1</v>
       </c>
       <c r="F36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1366,7 +1372,7 @@
         <v>0.1</v>
       </c>
       <c r="F37" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1386,7 +1392,7 @@
         <v>0.1</v>
       </c>
       <c r="F38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1406,7 +1412,7 @@
         <v>0.1</v>
       </c>
       <c r="F39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1426,7 +1432,7 @@
         <v>0.1</v>
       </c>
       <c r="F40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1446,7 +1452,7 @@
         <v>0.1</v>
       </c>
       <c r="F41" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1466,7 +1472,7 @@
         <v>0.1</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1486,7 +1492,7 @@
         <v>0.1</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1506,7 +1512,7 @@
         <v>0.1</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1526,7 +1532,7 @@
         <v>0.1</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1546,7 +1552,7 @@
         <v>0.1</v>
       </c>
       <c r="F46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1566,7 +1572,7 @@
         <v>0.1</v>
       </c>
       <c r="F47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1586,7 +1592,7 @@
         <v>0.1</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1606,7 +1612,7 @@
         <v>0.1</v>
       </c>
       <c r="F49" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1626,7 +1632,7 @@
         <v>0.1</v>
       </c>
       <c r="F50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1646,7 +1652,7 @@
         <v>0.1</v>
       </c>
       <c r="F51" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1666,7 +1672,7 @@
         <v>0.1</v>
       </c>
       <c r="F52" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1686,7 +1692,7 @@
         <v>0.1</v>
       </c>
       <c r="F53" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1706,7 +1712,7 @@
         <v>0.1</v>
       </c>
       <c r="F54" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1726,7 +1732,7 @@
         <v>0.1</v>
       </c>
       <c r="F55" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1746,7 +1752,7 @@
         <v>0.1</v>
       </c>
       <c r="F56" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1766,7 +1772,7 @@
         <v>0.1</v>
       </c>
       <c r="F57" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1786,7 +1792,7 @@
         <v>0.1</v>
       </c>
       <c r="F58" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1806,7 +1812,7 @@
         <v>0.1</v>
       </c>
       <c r="F59" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1826,7 +1832,7 @@
         <v>0.1</v>
       </c>
       <c r="F60" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1846,7 +1852,7 @@
         <v>0.1</v>
       </c>
       <c r="F61" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1866,7 +1872,7 @@
         <v>0.1</v>
       </c>
       <c r="F62" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1886,7 +1892,7 @@
         <v>0.1</v>
       </c>
       <c r="F63" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1906,7 +1912,7 @@
         <v>0.1</v>
       </c>
       <c r="F64" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1926,7 +1932,7 @@
         <v>0.1</v>
       </c>
       <c r="F65" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1946,7 +1952,7 @@
         <v>0.1</v>
       </c>
       <c r="F66" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1966,7 +1972,7 @@
         <v>0.1</v>
       </c>
       <c r="F67" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1986,7 +1992,7 @@
         <v>0.1</v>
       </c>
       <c r="F68" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2006,7 +2012,7 @@
         <v>0.1</v>
       </c>
       <c r="F69" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2026,7 +2032,7 @@
         <v>0.1</v>
       </c>
       <c r="F70" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2046,7 +2052,7 @@
         <v>0.1</v>
       </c>
       <c r="F71" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2066,7 +2072,7 @@
         <v>0.1</v>
       </c>
       <c r="F72" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2086,7 +2092,7 @@
         <v>0.1</v>
       </c>
       <c r="F73" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2106,7 +2112,7 @@
         <v>0.1</v>
       </c>
       <c r="F74" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2126,7 +2132,7 @@
         <v>0.1</v>
       </c>
       <c r="F75" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2146,7 +2152,7 @@
         <v>0.1</v>
       </c>
       <c r="F76" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2166,7 +2172,7 @@
         <v>0.1</v>
       </c>
       <c r="F77" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2186,7 +2192,7 @@
         <v>0.1</v>
       </c>
       <c r="F78" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2206,7 +2212,7 @@
         <v>0.1</v>
       </c>
       <c r="F79" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2226,7 +2232,47 @@
         <v>0.1</v>
       </c>
       <c r="F80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
         <v>84</v>
+      </c>
+      <c r="C81">
+        <v>12.9</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0.1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82">
+        <v>13.5</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0.1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/CANTEL II.xlsx
+++ b/tablas_insivumeh/CANTEL II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="88">
   <si>
     <t>Fecha</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>11/17/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:00:00 AM</t>
   </si>
   <si>
     <t>CANTEL II</t>
@@ -632,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,7 +675,7 @@
         <v>0.1</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -692,7 +695,7 @@
         <v>0.1</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -712,7 +715,7 @@
         <v>0.1</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -732,7 +735,7 @@
         <v>0.1</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -752,7 +755,7 @@
         <v>0.1</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -772,7 +775,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -792,7 +795,7 @@
         <v>0.1</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -812,7 +815,7 @@
         <v>0.1</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -832,7 +835,7 @@
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -852,7 +855,7 @@
         <v>0.1</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -872,7 +875,7 @@
         <v>0.1</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -892,7 +895,7 @@
         <v>0.1</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -912,7 +915,7 @@
         <v>0.1</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -932,7 +935,7 @@
         <v>0.1</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -952,7 +955,7 @@
         <v>0.1</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -972,7 +975,7 @@
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -992,7 +995,7 @@
         <v>0.1</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1012,7 +1015,7 @@
         <v>0.1</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1032,7 +1035,7 @@
         <v>0.1</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1052,7 +1055,7 @@
         <v>0.1</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1072,7 +1075,7 @@
         <v>0.1</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1092,7 +1095,7 @@
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1112,7 +1115,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1132,7 +1135,7 @@
         <v>0.1</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1152,7 +1155,7 @@
         <v>0.1</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1172,7 +1175,7 @@
         <v>0.1</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1192,7 +1195,7 @@
         <v>0.1</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1212,7 +1215,7 @@
         <v>0.1</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1232,7 +1235,7 @@
         <v>0.1</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1252,7 +1255,7 @@
         <v>0.1</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1272,7 +1275,7 @@
         <v>0.1</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1292,7 +1295,7 @@
         <v>0.1</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1312,7 +1315,7 @@
         <v>0.1</v>
       </c>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1332,7 +1335,7 @@
         <v>0.1</v>
       </c>
       <c r="F35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1352,7 +1355,7 @@
         <v>0.1</v>
       </c>
       <c r="F36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1372,7 +1375,7 @@
         <v>0.1</v>
       </c>
       <c r="F37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1392,7 +1395,7 @@
         <v>0.1</v>
       </c>
       <c r="F38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1412,7 +1415,7 @@
         <v>0.1</v>
       </c>
       <c r="F39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1432,7 +1435,7 @@
         <v>0.1</v>
       </c>
       <c r="F40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1452,7 +1455,7 @@
         <v>0.1</v>
       </c>
       <c r="F41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1472,7 +1475,7 @@
         <v>0.1</v>
       </c>
       <c r="F42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1492,7 +1495,7 @@
         <v>0.1</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1512,7 +1515,7 @@
         <v>0.1</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1532,7 +1535,7 @@
         <v>0.1</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1552,7 +1555,7 @@
         <v>0.1</v>
       </c>
       <c r="F46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1572,7 +1575,7 @@
         <v>0.1</v>
       </c>
       <c r="F47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1592,7 +1595,7 @@
         <v>0.1</v>
       </c>
       <c r="F48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1612,7 +1615,7 @@
         <v>0.1</v>
       </c>
       <c r="F49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1632,7 +1635,7 @@
         <v>0.1</v>
       </c>
       <c r="F50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1652,7 +1655,7 @@
         <v>0.1</v>
       </c>
       <c r="F51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1672,7 +1675,7 @@
         <v>0.1</v>
       </c>
       <c r="F52" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1692,7 +1695,7 @@
         <v>0.1</v>
       </c>
       <c r="F53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1712,7 +1715,7 @@
         <v>0.1</v>
       </c>
       <c r="F54" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1732,7 +1735,7 @@
         <v>0.1</v>
       </c>
       <c r="F55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1752,7 +1755,7 @@
         <v>0.1</v>
       </c>
       <c r="F56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1772,7 +1775,7 @@
         <v>0.1</v>
       </c>
       <c r="F57" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1792,7 +1795,7 @@
         <v>0.1</v>
       </c>
       <c r="F58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1812,7 +1815,7 @@
         <v>0.1</v>
       </c>
       <c r="F59" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1832,7 +1835,7 @@
         <v>0.1</v>
       </c>
       <c r="F60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1852,7 +1855,7 @@
         <v>0.1</v>
       </c>
       <c r="F61" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1872,7 +1875,7 @@
         <v>0.1</v>
       </c>
       <c r="F62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1892,7 +1895,7 @@
         <v>0.1</v>
       </c>
       <c r="F63" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1912,7 +1915,7 @@
         <v>0.1</v>
       </c>
       <c r="F64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1932,7 +1935,7 @@
         <v>0.1</v>
       </c>
       <c r="F65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1952,7 +1955,7 @@
         <v>0.1</v>
       </c>
       <c r="F66" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1972,7 +1975,7 @@
         <v>0.1</v>
       </c>
       <c r="F67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1992,7 +1995,7 @@
         <v>0.1</v>
       </c>
       <c r="F68" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2012,7 +2015,7 @@
         <v>0.1</v>
       </c>
       <c r="F69" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2032,7 +2035,7 @@
         <v>0.1</v>
       </c>
       <c r="F70" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2052,7 +2055,7 @@
         <v>0.1</v>
       </c>
       <c r="F71" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2072,7 +2075,7 @@
         <v>0.1</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2092,7 +2095,7 @@
         <v>0.1</v>
       </c>
       <c r="F73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2112,7 +2115,7 @@
         <v>0.1</v>
       </c>
       <c r="F74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2132,7 +2135,7 @@
         <v>0.1</v>
       </c>
       <c r="F75" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2152,7 +2155,7 @@
         <v>0.1</v>
       </c>
       <c r="F76" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2172,7 +2175,7 @@
         <v>0.1</v>
       </c>
       <c r="F77" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2192,7 +2195,7 @@
         <v>0.1</v>
       </c>
       <c r="F78" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2212,7 +2215,7 @@
         <v>0.1</v>
       </c>
       <c r="F79" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2232,7 +2235,7 @@
         <v>0.1</v>
       </c>
       <c r="F80" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2252,7 +2255,7 @@
         <v>0.1</v>
       </c>
       <c r="F81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2272,7 +2275,27 @@
         <v>0.1</v>
       </c>
       <c r="F82" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
         <v>86</v>
+      </c>
+      <c r="C83">
+        <v>13.51</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0.1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
